--- a/capiq_data/in_process_data/IQ4026111.xlsx
+++ b/capiq_data/in_process_data/IQ4026111.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98454CC6-67DE-4EDD-B420-1AE7C7D8BDDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC844EA3-1A99-495A-86B4-D2E06F44FABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"aa5feefe-f933-49cd-8dfd-db538dd5ca86"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"dfa51faa-59f4-425f-8b06-5d5eb539bd94"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$77</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$77</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$77</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$77</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$77</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$77</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$77</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$77</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$77</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$77</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$77</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$77</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$77</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$77</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$77</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$77</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$77</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$77</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$77</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$77</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$77</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$77</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$77</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$77</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$77</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$77</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,111 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +838,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37346</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-184.39099999999999</v>
+        <v>-559.63599999999997</v>
       </c>
       <c r="D2">
-        <v>2105.6010000000001</v>
+        <v>1607.1595</v>
       </c>
       <c r="E2">
-        <v>435.20600000000002</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>423.81599999999997</v>
+        <v>124.91849999999999</v>
       </c>
       <c r="G2">
-        <v>7206.3549999999996</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>26397.018</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4860.9780000000001</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>977.16399999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>137.21199999999999</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +877,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10357.050999999999</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>21616.481</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1114.376</v>
+        <v>1446.0740000000001</v>
       </c>
       <c r="Q2">
-        <v>-17.791</v>
+        <v>-120.164</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37346</v>
       </c>
       <c r="S2">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>4780.5370000000003</v>
+        <v>3477.5650000000001</v>
       </c>
       <c r="U2">
-        <v>1150.5160000000001</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>75.281000000000006</v>
+        <v>-98.325999999999993</v>
       </c>
       <c r="W2">
-        <v>-16.916</v>
+        <v>-10.2385</v>
       </c>
       <c r="X2">
-        <v>-185.916</v>
+        <v>-10.502000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>57.286000000000001</v>
+        <v>12.291499999999999</v>
       </c>
       <c r="AA2">
-        <v>-184.39099999999999</v>
+        <v>-559.63599999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37437</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>140.751</v>
+        <v>-559.63599999999997</v>
       </c>
       <c r="D3">
-        <v>2036.671</v>
+        <v>1607.1595</v>
       </c>
       <c r="E3">
-        <v>576.08799999999997</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>440.44</v>
+        <v>124.91849999999999</v>
       </c>
       <c r="G3">
-        <v>7162.393</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>26697.375</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4915.1000000000004</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>972.19200000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>272.358</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +960,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10621.894</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>21949.982</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1244.55</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-210.08199999999999</v>
+        <v>-120.164</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37437</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4747.393</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>940.43399999999997</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>183.626</v>
+        <v>-98.325999999999993</v>
       </c>
       <c r="W3">
-        <v>-16.122</v>
+        <v>-10.2385</v>
       </c>
       <c r="X3">
-        <v>-231.07</v>
+        <v>-10.502000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-187.24799999999999</v>
+        <v>12.291499999999999</v>
       </c>
       <c r="AA3">
-        <v>140.751</v>
+        <v>-559.63599999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37529</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>165.01599999999999</v>
+        <v>57.664999999999999</v>
       </c>
       <c r="D4">
-        <v>2062.8870000000002</v>
+        <v>1625.425</v>
       </c>
       <c r="E4">
-        <v>612.52200000000005</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>349.58800000000002</v>
+        <v>113.294</v>
       </c>
       <c r="G4">
-        <v>7494.3509999999997</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>26779.755000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5000.3919999999998</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>972.22</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>93.125</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1043,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10598.753000000001</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>21903.778999999999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1065.345</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>194.66499999999999</v>
+        <v>85.885000000000005</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37529</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4875.9759999999997</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1135.0989999999999</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>140.125</v>
+        <v>405.08</v>
       </c>
       <c r="W4">
-        <v>-17.558</v>
+        <v>-21.399000000000001</v>
       </c>
       <c r="X4">
-        <v>-127.57599999999999</v>
+        <v>-21.661000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>224.26900000000001</v>
+        <v>-329.72300000000001</v>
       </c>
       <c r="AA4">
-        <v>165.01599999999999</v>
+        <v>57.664999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37621</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>74.037000000000006</v>
+        <v>60.408000000000001</v>
       </c>
       <c r="D5">
-        <v>2061.7150000000001</v>
+        <v>1666.7840000000001</v>
       </c>
       <c r="E5">
-        <v>614.27700000000004</v>
+        <v>303.04899999999998</v>
       </c>
       <c r="F5">
-        <v>331.27100000000002</v>
+        <v>99.99</v>
       </c>
       <c r="G5">
-        <v>7667.8379999999997</v>
+        <v>6472.808</v>
       </c>
       <c r="H5">
-        <v>26774</v>
+        <v>22279.055</v>
       </c>
       <c r="I5">
-        <v>5083.6660000000002</v>
+        <v>4807.4759999999997</v>
       </c>
       <c r="J5">
-        <v>972.24900000000002</v>
+        <v>1446.0740000000001</v>
       </c>
       <c r="K5">
-        <v>96.448999999999998</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1126,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10754.892</v>
+        <v>8388.491</v>
       </c>
       <c r="O5">
-        <v>21759.527999999998</v>
+        <v>19699.335999999999</v>
       </c>
       <c r="P5">
-        <v>1068.6980000000001</v>
+        <v>1446.0740000000001</v>
       </c>
       <c r="Q5">
-        <v>-75.575999999999993</v>
+        <v>96.552999999999997</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37621</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="T5">
-        <v>5014.4719999999998</v>
+        <v>2579.7190000000001</v>
       </c>
       <c r="U5">
-        <v>1059.5229999999999</v>
+        <v>610.69399999999996</v>
       </c>
       <c r="V5">
-        <v>185.94</v>
+        <v>156.535</v>
       </c>
       <c r="W5">
-        <v>-17.178000000000001</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-91.510999999999996</v>
+        <v>-0.76300000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-155.375</v>
+        <v>-75.843000000000004</v>
       </c>
       <c r="AA5">
-        <v>74.037000000000006</v>
+        <v>60.408000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37711</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>159.15199999999999</v>
+        <v>73.236999999999995</v>
       </c>
       <c r="D6">
-        <v>2111.5309999999999</v>
+        <v>1731.74</v>
       </c>
       <c r="E6">
-        <v>521.59400000000005</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>466.76900000000001</v>
+        <v>139.99799999999999</v>
       </c>
       <c r="G6">
-        <v>7830.5860000000002</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>27019.862000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5117.7020000000002</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>972.27800000000002</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>95.494</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1209,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10964.102999999999</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>22145.912</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1067.7719999999999</v>
+        <v>1446.0740000000001</v>
       </c>
       <c r="Q6">
-        <v>107.19</v>
+        <v>127.943</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37711</v>
       </c>
       <c r="S6">
-        <v>14100</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4873.95</v>
+        <v>2579.7190000000001</v>
       </c>
       <c r="U6">
-        <v>1166.713</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>345.613</v>
+        <v>271.59500000000003</v>
       </c>
       <c r="W6">
-        <v>-16.527000000000001</v>
+        <v>-20.823</v>
       </c>
       <c r="X6">
-        <v>-186.691</v>
+        <v>-21.585999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-38.457000000000001</v>
+        <v>-93.037000000000006</v>
       </c>
       <c r="AA6">
-        <v>159.15199999999999</v>
+        <v>73.236999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37802</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>163.26</v>
+        <v>90.65</v>
       </c>
       <c r="D7">
-        <v>2072.924</v>
+        <v>1722.6010000000001</v>
       </c>
       <c r="E7">
-        <v>672.2</v>
+        <v>361.49400000000003</v>
       </c>
       <c r="F7">
-        <v>458.173</v>
+        <v>166.541</v>
       </c>
       <c r="G7">
-        <v>7713.6419999999998</v>
+        <v>5921.8370000000004</v>
       </c>
       <c r="H7">
-        <v>27254.867999999999</v>
+        <v>22738.162</v>
       </c>
       <c r="I7">
-        <v>4964.66</v>
+        <v>4949.1090000000004</v>
       </c>
       <c r="J7">
-        <v>972.30799999999999</v>
+        <v>1446.0740000000001</v>
       </c>
       <c r="K7">
-        <v>94.29</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1292,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10888.967000000001</v>
+        <v>8497.5280000000002</v>
       </c>
       <c r="O7">
-        <v>22289.977999999999</v>
+        <v>19935.112000000001</v>
       </c>
       <c r="P7">
-        <v>1066.598</v>
+        <v>1446.0740000000001</v>
       </c>
       <c r="Q7">
-        <v>-101.898</v>
+        <v>-298.09100000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37802</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="T7">
-        <v>4964.8900000000003</v>
+        <v>2803.05</v>
       </c>
       <c r="U7">
-        <v>1064.8150000000001</v>
+        <v>403.60399999999998</v>
       </c>
       <c r="V7">
-        <v>1.0209999999999999</v>
+        <v>106.34</v>
       </c>
       <c r="W7">
-        <v>-15.941000000000001</v>
+        <v>-139.31100000000001</v>
       </c>
       <c r="X7">
-        <v>-122.3</v>
+        <v>-139.56399999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>27.204000000000001</v>
+        <v>-215.745</v>
       </c>
       <c r="AA7">
-        <v>163.26</v>
+        <v>90.65</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37894</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>169.17</v>
+        <v>99.397999999999996</v>
       </c>
       <c r="D8">
-        <v>2129.29</v>
+        <v>1775.577</v>
       </c>
       <c r="E8">
-        <v>685.82</v>
+        <v>415.529</v>
       </c>
       <c r="F8">
-        <v>472.93099999999998</v>
+        <v>175.06399999999999</v>
       </c>
       <c r="G8">
-        <v>7889.5640000000003</v>
+        <v>5854.7340000000004</v>
       </c>
       <c r="H8">
-        <v>27243.589</v>
+        <v>22873.296999999999</v>
       </c>
       <c r="I8">
-        <v>4930.7820000000002</v>
+        <v>4748.7209999999995</v>
       </c>
       <c r="J8">
-        <v>972.33699999999999</v>
+        <v>1446.0740000000001</v>
       </c>
       <c r="K8">
-        <v>94.614999999999995</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1375,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10926.925999999999</v>
+        <v>8382.4599999999991</v>
       </c>
       <c r="O8">
-        <v>22210.021000000001</v>
+        <v>20095.914000000001</v>
       </c>
       <c r="P8">
-        <v>1066.952</v>
+        <v>1446.0740000000001</v>
       </c>
       <c r="Q8">
-        <v>42.177</v>
+        <v>103.819</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37894</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="T8">
-        <v>5033.5680000000002</v>
+        <v>2777.3829999999998</v>
       </c>
       <c r="U8">
-        <v>1106.992</v>
+        <v>441.46800000000002</v>
       </c>
       <c r="V8">
-        <v>183.49</v>
+        <v>253.66800000000001</v>
       </c>
       <c r="W8">
-        <v>-19.408000000000001</v>
+        <v>-21.053000000000001</v>
       </c>
       <c r="X8">
-        <v>-170.23599999999999</v>
+        <v>-21.251999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>41.569000000000003</v>
+        <v>-77.183000000000007</v>
       </c>
       <c r="AA8">
-        <v>169.17</v>
+        <v>99.397999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37986</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>126.288</v>
+        <v>-77.632999999999996</v>
       </c>
       <c r="D9">
-        <v>2145.08</v>
+        <v>1836.2950000000001</v>
       </c>
       <c r="E9">
-        <v>760.67600000000004</v>
+        <v>468.76600000000002</v>
       </c>
       <c r="F9">
-        <v>420.77100000000002</v>
+        <v>104.60899999999999</v>
       </c>
       <c r="G9">
-        <v>7786.88</v>
+        <v>6241.1279999999997</v>
       </c>
       <c r="H9">
-        <v>28169.623</v>
+        <v>24060.016</v>
       </c>
       <c r="I9">
-        <v>5143.7520000000004</v>
+        <v>4924.232</v>
       </c>
       <c r="J9">
-        <v>972.36800000000005</v>
+        <v>2367.0070000000001</v>
       </c>
       <c r="K9">
-        <v>94.024000000000001</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1458,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11416.647999999999</v>
+        <v>8408.8109999999997</v>
       </c>
       <c r="O9">
-        <v>22940.01</v>
+        <v>21403.753000000001</v>
       </c>
       <c r="P9">
-        <v>1066.3920000000001</v>
+        <v>2367.0070000000001</v>
       </c>
       <c r="Q9">
-        <v>-34.485999999999997</v>
+        <v>413.83199999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37986</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="T9">
-        <v>5229.6130000000003</v>
+        <v>2656.2629999999999</v>
       </c>
       <c r="U9">
-        <v>1072.5060000000001</v>
+        <v>958.197</v>
       </c>
       <c r="V9">
-        <v>244.648</v>
+        <v>109.625</v>
       </c>
       <c r="W9">
-        <v>-17.283999999999999</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-129.572</v>
+        <v>499.90199999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-134.357</v>
+        <v>-160.613</v>
       </c>
       <c r="AA9">
-        <v>126.288</v>
+        <v>-77.632999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38077</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>24.986999999999998</v>
+        <v>94.378</v>
       </c>
       <c r="D10">
-        <v>2160.9760000000001</v>
+        <v>1859.9079999999999</v>
       </c>
       <c r="E10">
-        <v>686.77700000000004</v>
+        <v>472.86700000000002</v>
       </c>
       <c r="F10">
-        <v>251.13300000000001</v>
+        <v>155.08699999999999</v>
       </c>
       <c r="G10">
-        <v>8369.7510000000002</v>
+        <v>5943.5820000000003</v>
       </c>
       <c r="H10">
-        <v>28946.607</v>
+        <v>23704.276999999998</v>
       </c>
       <c r="I10">
-        <v>5639.902</v>
+        <v>5033.66</v>
       </c>
       <c r="J10">
-        <v>972.399</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>94.713999999999999</v>
+        <v>971.57600000000002</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-1946.2239999999999</v>
       </c>
       <c r="N10">
-        <v>12266.556</v>
+        <v>9536.1620000000003</v>
       </c>
       <c r="O10">
-        <v>23761.241000000002</v>
+        <v>20130.66</v>
       </c>
       <c r="P10">
-        <v>1067.1130000000001</v>
+        <v>971.57600000000002</v>
       </c>
       <c r="Q10">
-        <v>-163.102</v>
+        <v>-384.33600000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38077</v>
       </c>
       <c r="S10">
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>5185.366</v>
+        <v>3573.6170000000002</v>
       </c>
       <c r="U10">
-        <v>909.404</v>
+        <v>573.86099999999999</v>
       </c>
       <c r="V10">
-        <v>250.53899999999999</v>
+        <v>177.34100000000001</v>
       </c>
       <c r="W10">
-        <v>-16.760000000000002</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-58.533000000000001</v>
+        <v>-66.045000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-330.39600000000002</v>
+        <v>-255.792</v>
       </c>
       <c r="AA10">
-        <v>24.986999999999998</v>
+        <v>94.378</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38168</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>117.78</v>
+        <v>95.21</v>
       </c>
       <c r="D11">
-        <v>2150.623</v>
+        <v>1848.395</v>
       </c>
       <c r="E11">
-        <v>890.9</v>
+        <v>482.072</v>
       </c>
       <c r="F11">
-        <v>414.47399999999999</v>
+        <v>169.11</v>
       </c>
       <c r="G11">
-        <v>8773.6329999999998</v>
+        <v>5821.0879999999997</v>
       </c>
       <c r="H11">
-        <v>29481.54</v>
+        <v>23349.181</v>
       </c>
       <c r="I11">
-        <v>5379.9989999999998</v>
+        <v>4955.607</v>
       </c>
       <c r="J11">
-        <v>1670.5229999999999</v>
+        <v>971.61400000000003</v>
       </c>
       <c r="K11">
-        <v>94.611000000000004</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1624,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11994.721</v>
+        <v>8438.3979999999992</v>
       </c>
       <c r="O11">
-        <v>24274.935000000001</v>
+        <v>19970.816999999999</v>
       </c>
       <c r="P11">
-        <v>1765.134</v>
+        <v>971.61400000000003</v>
       </c>
       <c r="Q11">
-        <v>695.221</v>
+        <v>35.009</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38168</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>5206.6049999999996</v>
+        <v>3378.364</v>
       </c>
       <c r="U11">
-        <v>1604.625</v>
+        <v>608.87</v>
       </c>
       <c r="V11">
-        <v>51.680999999999997</v>
+        <v>136.018</v>
       </c>
       <c r="W11">
-        <v>-16.789000000000001</v>
+        <v>-9.9589999999999996</v>
       </c>
       <c r="X11">
-        <v>670.17200000000003</v>
+        <v>-75.686000000000007</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-27.204000000000001</v>
+        <v>-61.814999999999998</v>
       </c>
       <c r="AA11">
-        <v>117.78</v>
+        <v>95.21</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38260</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>133.523</v>
+        <v>74.843999999999994</v>
       </c>
       <c r="D12">
-        <v>2237.7660000000001</v>
+        <v>1833.547</v>
       </c>
       <c r="E12">
-        <v>884.952</v>
+        <v>482.56</v>
       </c>
       <c r="F12">
-        <v>425.613</v>
+        <v>124.361</v>
       </c>
       <c r="G12">
-        <v>8760.0810000000001</v>
+        <v>5802.6949999999997</v>
       </c>
       <c r="H12">
-        <v>28728.794999999998</v>
+        <v>23638.294000000002</v>
       </c>
       <c r="I12">
-        <v>5126.4290000000001</v>
+        <v>5071.7030000000004</v>
       </c>
       <c r="J12">
-        <v>1646.89</v>
+        <v>971.59299999999996</v>
       </c>
       <c r="K12">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1707,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11837.62</v>
+        <v>8677.9230000000007</v>
       </c>
       <c r="O12">
-        <v>23932.909</v>
+        <v>20059.082999999999</v>
       </c>
       <c r="P12">
-        <v>1742.89</v>
+        <v>971.59299999999996</v>
       </c>
       <c r="Q12">
-        <v>-334.23</v>
+        <v>83.503</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38260</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4795.8860000000004</v>
+        <v>3579.2109999999998</v>
       </c>
       <c r="U12">
-        <v>1270.395</v>
+        <v>692.37300000000005</v>
       </c>
       <c r="V12">
-        <v>221.98099999999999</v>
+        <v>260.01400000000001</v>
       </c>
       <c r="W12">
-        <v>-20.155000000000001</v>
+        <v>-9.9280000000000008</v>
       </c>
       <c r="X12">
-        <v>-226.67500000000001</v>
+        <v>-44.805</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-336.60599999999999</v>
+        <v>-80.97</v>
       </c>
       <c r="AA12">
-        <v>133.523</v>
+        <v>74.843999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38352</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>128.78800000000001</v>
+        <v>86.128</v>
       </c>
       <c r="D13">
-        <v>2258.65</v>
+        <v>1878.096</v>
       </c>
       <c r="E13">
-        <v>983.16600000000005</v>
+        <v>273.45299999999997</v>
       </c>
       <c r="F13">
-        <v>409.15699999999998</v>
+        <v>155.18299999999999</v>
       </c>
       <c r="G13">
-        <v>9087.7170000000006</v>
+        <v>5848.085</v>
       </c>
       <c r="H13">
-        <v>29348.584999999999</v>
+        <v>24548.106</v>
       </c>
       <c r="I13">
-        <v>5365.0519999999997</v>
+        <v>5057.8119999999999</v>
       </c>
       <c r="J13">
-        <v>1638.3879999999999</v>
+        <v>1506.942</v>
       </c>
       <c r="K13">
-        <v>95.760999999999996</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,247 +1790,247 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12298.627</v>
+        <v>8778.5409999999993</v>
       </c>
       <c r="O13">
-        <v>24565.666000000001</v>
+        <v>20888.514999999999</v>
       </c>
       <c r="P13">
-        <v>1734.1489999999999</v>
+        <v>1506.942</v>
       </c>
       <c r="Q13">
-        <v>16.302</v>
+        <v>114.709</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38352</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="T13">
-        <v>4782.9189999999999</v>
+        <v>3659.5909999999999</v>
       </c>
       <c r="U13">
-        <v>1286.6969999999999</v>
+        <v>807.08199999999999</v>
       </c>
       <c r="V13">
-        <v>450.37599999999998</v>
+        <v>259.97899999999998</v>
       </c>
       <c r="W13">
-        <v>-18.832999999999998</v>
+        <v>-9.7889999999999997</v>
       </c>
       <c r="X13">
-        <v>-133.792</v>
+        <v>-41.466999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-235.62100000000001</v>
+        <v>-81.614000000000004</v>
       </c>
       <c r="AA13">
-        <v>128.78800000000001</v>
+        <v>86.128</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38442</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>108.816</v>
+        <v>114.398</v>
       </c>
       <c r="D14">
-        <v>2400.6179999999999</v>
+        <v>1862.354</v>
       </c>
       <c r="E14">
-        <v>904.81399999999996</v>
+        <v>459.98099999999999</v>
       </c>
       <c r="F14">
-        <v>551.69200000000001</v>
+        <v>192.03700000000001</v>
       </c>
       <c r="G14">
-        <v>9167.6270000000004</v>
+        <v>5666.6080000000002</v>
       </c>
       <c r="H14">
-        <v>29714.688999999998</v>
+        <v>24321.973999999998</v>
       </c>
       <c r="I14">
-        <v>5364.5770000000002</v>
+        <v>5004.1000000000004</v>
       </c>
       <c r="J14">
-        <v>1638.1179999999999</v>
+        <v>971.63099999999997</v>
       </c>
       <c r="K14">
-        <v>95.206000000000003</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12555.462</v>
+        <v>8744.8029999999999</v>
       </c>
       <c r="O14">
-        <v>24881.21</v>
+        <v>20662.237000000001</v>
       </c>
       <c r="P14">
-        <v>1733.3240000000001</v>
+        <v>971.63099999999997</v>
       </c>
       <c r="Q14">
-        <v>430.48700000000002</v>
+        <v>-332.048</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38442</v>
       </c>
       <c r="S14">
-        <v>16600</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>4833.4790000000003</v>
+        <v>3659.7370000000001</v>
       </c>
       <c r="U14">
-        <v>1717.184</v>
+        <v>475.03399999999999</v>
       </c>
       <c r="V14">
-        <v>303.52300000000002</v>
+        <v>-2.1920000000000002</v>
       </c>
       <c r="W14">
-        <v>-18.350999999999999</v>
+        <v>-9.7949999999999999</v>
       </c>
       <c r="X14">
-        <v>-113.006</v>
+        <v>37.325000000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>416.01400000000001</v>
+        <v>-301.80900000000003</v>
       </c>
       <c r="AA14">
-        <v>108.816</v>
+        <v>114.398</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38533</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>137.245</v>
+        <v>127.624</v>
       </c>
       <c r="D15">
-        <v>2448.3719999999998</v>
+        <v>1874.3030000000001</v>
       </c>
       <c r="E15">
-        <v>1129.27</v>
+        <v>427.99299999999999</v>
       </c>
       <c r="F15">
-        <v>464.78699999999998</v>
+        <v>203.41300000000001</v>
       </c>
       <c r="G15">
-        <v>8779.8220000000001</v>
+        <v>5366.6869999999999</v>
       </c>
       <c r="H15">
-        <v>29668.384999999998</v>
+        <v>24456.762999999999</v>
       </c>
       <c r="I15">
-        <v>5280.5219999999999</v>
+        <v>4814.4210000000003</v>
       </c>
       <c r="J15">
-        <v>1170.8589999999999</v>
+        <v>971.65</v>
       </c>
       <c r="K15">
-        <v>95.997</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-467.33</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12465.25</v>
+        <v>8583.107</v>
       </c>
       <c r="O15">
-        <v>24572.097000000002</v>
+        <v>20589.181</v>
       </c>
       <c r="P15">
-        <v>1266.856</v>
+        <v>971.65</v>
       </c>
       <c r="Q15">
-        <v>-611.27200000000005</v>
+        <v>25.736000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38533</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>5096.2879999999996</v>
+        <v>3867.5819999999999</v>
       </c>
       <c r="U15">
-        <v>1105.912</v>
+        <v>500.77</v>
       </c>
       <c r="V15">
-        <v>127.178</v>
+        <v>186.07</v>
       </c>
       <c r="W15">
-        <v>-18.18</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-534.18799999999999</v>
+        <v>-124.694</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-205.79400000000001</v>
+        <v>18.228999999999999</v>
       </c>
       <c r="AA15">
-        <v>137.245</v>
+        <v>127.624</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38625</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>143.61000000000001</v>
+        <v>100.28700000000001</v>
       </c>
       <c r="D16">
-        <v>2608.1010000000001</v>
+        <v>1879.441</v>
       </c>
       <c r="E16">
-        <v>1294.865</v>
+        <v>481.74400000000003</v>
       </c>
       <c r="F16">
-        <v>447.75900000000001</v>
+        <v>156.68899999999999</v>
       </c>
       <c r="G16">
-        <v>9250.2489999999998</v>
+        <v>6438.8329999999996</v>
       </c>
       <c r="H16">
-        <v>30617.172999999999</v>
+        <v>25412.444</v>
       </c>
       <c r="I16">
-        <v>5580.5119999999997</v>
+        <v>5739.3119999999999</v>
       </c>
       <c r="J16">
-        <v>1170.932</v>
+        <v>971.67</v>
       </c>
       <c r="K16">
-        <v>95.216999999999999</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2039,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12951.325999999999</v>
+        <v>9684.7780000000002</v>
       </c>
       <c r="O16">
-        <v>25267.466</v>
+        <v>21722.482</v>
       </c>
       <c r="P16">
-        <v>1266.1489999999999</v>
+        <v>971.67</v>
       </c>
       <c r="Q16">
-        <v>292.95800000000003</v>
+        <v>140.49799999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38625</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>5349.7070000000003</v>
+        <v>3689.962</v>
       </c>
       <c r="U16">
-        <v>1398.87</v>
+        <v>641.26800000000003</v>
       </c>
       <c r="V16">
-        <v>134.59</v>
+        <v>433.14100000000002</v>
       </c>
       <c r="W16">
-        <v>-20.753</v>
+        <v>-10.776</v>
       </c>
       <c r="X16">
-        <v>-71.611000000000004</v>
+        <v>-195.94399999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>289.798</v>
+        <v>-97.799000000000007</v>
       </c>
       <c r="AA16">
-        <v>143.61000000000001</v>
+        <v>100.28700000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38717</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>140.297</v>
+        <v>137.04599999999999</v>
       </c>
       <c r="D17">
-        <v>2702.4879999999998</v>
+        <v>1881.577</v>
       </c>
       <c r="E17">
-        <v>1340.2</v>
+        <v>290.904</v>
       </c>
       <c r="F17">
-        <v>491.41</v>
+        <v>164.727</v>
       </c>
       <c r="G17">
-        <v>9517.5769999999993</v>
+        <v>6317.66</v>
       </c>
       <c r="H17">
-        <v>30673.129000000001</v>
+        <v>25365.453000000001</v>
       </c>
       <c r="I17">
-        <v>5560.6869999999999</v>
+        <v>5355.9660000000003</v>
       </c>
       <c r="J17">
-        <v>1171.0050000000001</v>
+        <v>1582.3520000000001</v>
       </c>
       <c r="K17">
-        <v>95.972999999999999</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,164 +2122,164 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13062.333000000001</v>
+        <v>9508.7890000000007</v>
       </c>
       <c r="O17">
-        <v>25330.565999999999</v>
+        <v>21641.734</v>
       </c>
       <c r="P17">
-        <v>1266.9780000000001</v>
+        <v>1582.3520000000001</v>
       </c>
       <c r="Q17">
-        <v>12.396000000000001</v>
+        <v>214.30099999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38717</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="T17">
-        <v>5342.5630000000001</v>
+        <v>3723.7190000000001</v>
       </c>
       <c r="U17">
-        <v>1411.2660000000001</v>
+        <v>855.56899999999996</v>
       </c>
       <c r="V17">
-        <v>252.89599999999999</v>
+        <v>285.51900000000001</v>
       </c>
       <c r="W17">
-        <v>-19.449000000000002</v>
+        <v>-10.474</v>
       </c>
       <c r="X17">
-        <v>-52.494999999999997</v>
+        <v>-18.687999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-113.033</v>
+        <v>103.211</v>
       </c>
       <c r="AA17">
-        <v>140.297</v>
+        <v>137.04599999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38807</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>49.755000000000003</v>
+        <v>162.47200000000001</v>
       </c>
       <c r="D18">
-        <v>2622.692</v>
+        <v>1929.7819999999999</v>
       </c>
       <c r="E18">
-        <v>1243.8720000000001</v>
+        <v>514.14599999999996</v>
       </c>
       <c r="F18">
-        <v>373.745</v>
+        <v>257.67099999999999</v>
       </c>
       <c r="G18">
-        <v>10518.117</v>
+        <v>5635.1180000000004</v>
       </c>
       <c r="H18">
-        <v>31562.466</v>
+        <v>24680.684000000001</v>
       </c>
       <c r="I18">
-        <v>6284.5510000000004</v>
+        <v>4760.5240000000003</v>
       </c>
       <c r="J18">
-        <v>1171.079</v>
+        <v>971.71100000000001</v>
       </c>
       <c r="K18">
-        <v>95.986000000000004</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-67.463999999999999</v>
       </c>
       <c r="N18">
-        <v>13719.353999999999</v>
+        <v>8935.7749999999996</v>
       </c>
       <c r="O18">
-        <v>26381.159</v>
+        <v>21003.955000000002</v>
       </c>
       <c r="P18">
-        <v>1267.0650000000001</v>
+        <v>971.71100000000001</v>
       </c>
       <c r="Q18">
-        <v>-92.61</v>
+        <v>-204.864</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38807</v>
       </c>
       <c r="S18">
-        <v>17600</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>5181.3069999999998</v>
+        <v>3676.7289999999998</v>
       </c>
       <c r="U18">
-        <v>1318.6559999999999</v>
+        <v>650.70500000000004</v>
       </c>
       <c r="V18">
-        <v>-120.848</v>
+        <v>57.003</v>
       </c>
       <c r="W18">
-        <v>-19.113</v>
+        <v>-10.409000000000001</v>
       </c>
       <c r="X18">
-        <v>-117.905</v>
+        <v>-140.65</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>314.09199999999998</v>
+        <v>-157.25299999999999</v>
       </c>
       <c r="AA18">
-        <v>49.755000000000003</v>
+        <v>162.47200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38898</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>50.043999999999997</v>
+        <v>151.136</v>
       </c>
       <c r="D19">
-        <v>2598.61</v>
+        <v>1949.09</v>
       </c>
       <c r="E19">
-        <v>1573.9839999999999</v>
+        <v>512.01599999999996</v>
       </c>
       <c r="F19">
-        <v>335.98399999999998</v>
+        <v>247.47800000000001</v>
       </c>
       <c r="G19">
-        <v>10236.549000000001</v>
+        <v>5522.3890000000001</v>
       </c>
       <c r="H19">
-        <v>30800.356</v>
+        <v>24532.416000000001</v>
       </c>
       <c r="I19">
-        <v>6217.1490000000003</v>
+        <v>4729.6379999999999</v>
       </c>
       <c r="J19">
-        <v>1171.153</v>
+        <v>971.73099999999999</v>
       </c>
       <c r="K19">
-        <v>93.241</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2288,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13052.21</v>
+        <v>9044.268</v>
       </c>
       <c r="O19">
-        <v>25672.144</v>
+        <v>20938.901999999998</v>
       </c>
       <c r="P19">
-        <v>1264.394</v>
+        <v>971.73099999999999</v>
       </c>
       <c r="Q19">
-        <v>-253.49100000000001</v>
+        <v>12.795999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38898</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5128.2120000000004</v>
+        <v>3593.5140000000001</v>
       </c>
       <c r="U19">
-        <v>1065.165</v>
+        <v>663.50099999999998</v>
       </c>
       <c r="V19">
-        <v>-177.666</v>
+        <v>247.256</v>
       </c>
       <c r="W19">
-        <v>-18.834</v>
+        <v>-12.86</v>
       </c>
       <c r="X19">
-        <v>-104.35</v>
+        <v>-51.201000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-2.8370000000000002</v>
+        <v>-146.41800000000001</v>
       </c>
       <c r="AA19">
-        <v>50.043999999999997</v>
+        <v>151.136</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38990</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>32.789000000000001</v>
+        <v>151.303</v>
       </c>
       <c r="D20">
-        <v>2644.8939999999998</v>
+        <v>1984.079</v>
       </c>
       <c r="E20">
-        <v>1426.2840000000001</v>
+        <v>534.38699999999994</v>
       </c>
       <c r="F20">
-        <v>332.88499999999999</v>
+        <v>246.34800000000001</v>
       </c>
       <c r="G20">
-        <v>10676.647000000001</v>
+        <v>5578.7070000000003</v>
       </c>
       <c r="H20">
-        <v>30842.081999999999</v>
+        <v>25023.45</v>
       </c>
       <c r="I20">
-        <v>6406.848</v>
+        <v>4734.9340000000002</v>
       </c>
       <c r="J20">
-        <v>1171.229</v>
+        <v>971.75300000000004</v>
       </c>
       <c r="K20">
-        <v>95.289000000000001</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2371,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13339.091</v>
+        <v>9253.3610000000008</v>
       </c>
       <c r="O20">
-        <v>26014.121999999999</v>
+        <v>21240.848999999998</v>
       </c>
       <c r="P20">
-        <v>1266.518</v>
+        <v>971.75300000000004</v>
       </c>
       <c r="Q20">
-        <v>232.27099999999999</v>
+        <v>-16.364000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38990</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4827.96</v>
+        <v>3782.6010000000001</v>
       </c>
       <c r="U20">
-        <v>1297.4359999999999</v>
+        <v>647.13699999999994</v>
       </c>
       <c r="V20">
-        <v>346.56200000000001</v>
+        <v>307.27800000000002</v>
       </c>
       <c r="W20">
-        <v>-21.616</v>
+        <v>-12.568</v>
       </c>
       <c r="X20">
-        <v>-126.03700000000001</v>
+        <v>-110.688</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>60.494999999999997</v>
+        <v>-141.66999999999999</v>
       </c>
       <c r="AA20">
-        <v>32.789000000000001</v>
+        <v>151.303</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39082</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-7.0220000000000002</v>
+        <v>252.50700000000001</v>
       </c>
       <c r="D21">
-        <v>2534.1559999999999</v>
+        <v>2137.5990000000002</v>
       </c>
       <c r="E21">
-        <v>1274.3330000000001</v>
+        <v>344.96499999999997</v>
       </c>
       <c r="F21">
-        <v>234.702</v>
+        <v>335.45400000000001</v>
       </c>
       <c r="G21">
-        <v>11012.484</v>
+        <v>5966.5720000000001</v>
       </c>
       <c r="H21">
-        <v>30586.091</v>
+        <v>25165.148000000001</v>
       </c>
       <c r="I21">
-        <v>6459.951</v>
+        <v>4841.8090000000002</v>
       </c>
       <c r="J21">
-        <v>1171.3050000000001</v>
+        <v>1337.732</v>
       </c>
       <c r="K21">
-        <v>51.033999999999999</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,161 +2454,161 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13420.120999999999</v>
+        <v>9612.5740000000005</v>
       </c>
       <c r="O21">
-        <v>25902.491999999998</v>
+        <v>21310.391</v>
       </c>
       <c r="P21">
-        <v>1222.3389999999999</v>
+        <v>1337.732</v>
       </c>
       <c r="Q21">
-        <v>246.5</v>
+        <v>340.53500000000003</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39082</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="T21">
-        <v>4683.5990000000002</v>
+        <v>3854.7570000000001</v>
       </c>
       <c r="U21">
-        <v>1543.9359999999999</v>
+        <v>987.67200000000003</v>
       </c>
       <c r="V21">
-        <v>360.57799999999997</v>
+        <v>308.726</v>
       </c>
       <c r="W21">
-        <v>-20.456</v>
+        <v>-12.32</v>
       </c>
       <c r="X21">
-        <v>-94.944999999999993</v>
+        <v>-412.27100000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-24.663</v>
+        <v>154.41900000000001</v>
       </c>
       <c r="AA21">
-        <v>-7.0220000000000002</v>
+        <v>252.50700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39172</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>65.744</v>
+        <v>179.45699999999999</v>
       </c>
       <c r="D22">
-        <v>2547.8339999999998</v>
+        <v>2057.2629999999999</v>
       </c>
       <c r="E22">
-        <v>1064.44</v>
+        <v>500.12</v>
       </c>
       <c r="F22">
-        <v>362.65800000000002</v>
+        <v>556.58600000000001</v>
       </c>
       <c r="G22">
-        <v>10682.294</v>
+        <v>5701.4790000000003</v>
       </c>
       <c r="H22">
-        <v>30036.401999999998</v>
+        <v>25461.048999999999</v>
       </c>
       <c r="I22">
-        <v>6173.674</v>
+        <v>4704.3450000000003</v>
       </c>
       <c r="J22">
-        <v>1164.6559999999999</v>
+        <v>971.79600000000005</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12990.654</v>
+        <v>9613.8130000000001</v>
       </c>
       <c r="O22">
-        <v>25512.435000000001</v>
+        <v>21517.628000000001</v>
       </c>
       <c r="P22">
-        <v>1164.6559999999999</v>
+        <v>971.79600000000005</v>
       </c>
       <c r="Q22">
-        <v>-255.631</v>
+        <v>-227.83699999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39172</v>
       </c>
       <c r="S22">
-        <v>16700</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>4523.9669999999996</v>
+        <v>3943.4209999999998</v>
       </c>
       <c r="U22">
-        <v>1288.3050000000001</v>
+        <v>759.83500000000004</v>
       </c>
       <c r="V22">
-        <v>-274.90199999999999</v>
+        <v>170.59299999999999</v>
       </c>
       <c r="W22">
-        <v>-33.262</v>
+        <v>-12.233000000000001</v>
       </c>
       <c r="X22">
-        <v>-161.79499999999999</v>
+        <v>124.355</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>105.262</v>
+        <v>-277.50099999999998</v>
       </c>
       <c r="AA22">
-        <v>65.744</v>
+        <v>179.45699999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39263</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>220.4</v>
+        <v>166.28</v>
       </c>
       <c r="D23">
-        <v>2117.9</v>
+        <v>2064.7269999999999</v>
       </c>
       <c r="E23">
-        <v>1331.527</v>
+        <v>560.54399999999998</v>
       </c>
       <c r="F23">
-        <v>497.2</v>
+        <v>267.77</v>
       </c>
       <c r="G23">
-        <v>12646.428</v>
+        <v>5842.4769999999999</v>
       </c>
       <c r="H23">
-        <v>30287.195</v>
+        <v>25772.955000000002</v>
       </c>
       <c r="I23">
-        <v>5379.0680000000002</v>
+        <v>4762.3670000000002</v>
       </c>
       <c r="J23">
-        <v>1414.704</v>
+        <v>971.81799999999998</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2620,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12301.058999999999</v>
+        <v>9909.616</v>
       </c>
       <c r="O23">
-        <v>25722.55</v>
+        <v>21936.402999999998</v>
       </c>
       <c r="P23">
-        <v>1414.704</v>
+        <v>971.81799999999998</v>
       </c>
       <c r="Q23">
-        <v>772.5</v>
+        <v>250.23599999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39263</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4564.6450000000004</v>
+        <v>3836.5520000000001</v>
       </c>
       <c r="U23">
-        <v>2060.8150000000001</v>
+        <v>1010.071</v>
       </c>
       <c r="V23">
-        <v>-346</v>
+        <v>345.56400000000002</v>
       </c>
       <c r="W23">
-        <v>-32.4</v>
+        <v>-14.497999999999999</v>
       </c>
       <c r="X23">
-        <v>-19.8</v>
+        <v>-71.137</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>232.1</v>
+        <v>109.083</v>
       </c>
       <c r="AA23">
-        <v>220.4</v>
+        <v>166.28</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39355</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>169.3</v>
+        <v>187.191</v>
       </c>
       <c r="D24">
-        <v>1797.8</v>
+        <v>2148.192</v>
       </c>
       <c r="E24">
-        <v>1218.299</v>
+        <v>584.68799999999999</v>
       </c>
       <c r="F24">
-        <v>363.2</v>
+        <v>299.43299999999999</v>
       </c>
       <c r="G24">
-        <v>11788.582</v>
+        <v>5799.1940000000004</v>
       </c>
       <c r="H24">
-        <v>29804.213</v>
+        <v>26568.38</v>
       </c>
       <c r="I24">
-        <v>5391.09</v>
+        <v>4783.9129999999996</v>
       </c>
       <c r="J24">
-        <v>1165.2550000000001</v>
+        <v>971.83100000000002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2703,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12128.77</v>
+        <v>10215.107</v>
       </c>
       <c r="O24">
-        <v>25196.142</v>
+        <v>22624.154999999999</v>
       </c>
       <c r="P24">
-        <v>1165.2550000000001</v>
+        <v>971.83100000000002</v>
       </c>
       <c r="Q24">
-        <v>-828.1</v>
+        <v>-194.92400000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39355</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4608.0709999999999</v>
+        <v>3944.2249999999999</v>
       </c>
       <c r="U24">
-        <v>1232.674</v>
+        <v>815.14700000000005</v>
       </c>
       <c r="V24">
-        <v>22.2</v>
+        <v>320.68200000000002</v>
       </c>
       <c r="W24">
-        <v>-32.6</v>
+        <v>-14.146000000000001</v>
       </c>
       <c r="X24">
-        <v>-461.1</v>
+        <v>-114.334</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-558.6</v>
+        <v>-221.089</v>
       </c>
       <c r="AA24">
-        <v>169.3</v>
+        <v>187.191</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39447</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>144.4</v>
+        <v>120.818</v>
       </c>
       <c r="D25">
-        <v>1834.1</v>
+        <v>2183.3330000000001</v>
       </c>
       <c r="E25">
-        <v>1312.7380000000001</v>
+        <v>457.9</v>
       </c>
       <c r="F25">
-        <v>323.60000000000002</v>
+        <v>1200.694</v>
       </c>
       <c r="G25">
-        <v>12002.728999999999</v>
+        <v>5875.7460000000001</v>
       </c>
       <c r="H25">
-        <v>30283.835999999999</v>
+        <v>26750.315999999999</v>
       </c>
       <c r="I25">
-        <v>5629.991</v>
+        <v>4790.16</v>
       </c>
       <c r="J25">
-        <v>1165.557</v>
+        <v>971.86300000000006</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2786,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12513.118</v>
+        <v>10468.754999999999</v>
       </c>
       <c r="O25">
-        <v>25778.921999999999</v>
+        <v>22640.253000000001</v>
       </c>
       <c r="P25">
-        <v>1165.557</v>
+        <v>971.86300000000006</v>
       </c>
       <c r="Q25">
-        <v>-116</v>
+        <v>-10.183</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39447</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="T25">
-        <v>4504.9139999999998</v>
+        <v>4110.0630000000001</v>
       </c>
       <c r="U25">
-        <v>1116.623</v>
+        <v>804.96400000000006</v>
       </c>
       <c r="V25">
-        <v>255.8</v>
+        <v>366.72199999999998</v>
       </c>
       <c r="W25">
-        <v>-30</v>
+        <v>-14.161</v>
       </c>
       <c r="X25">
-        <v>-254.4</v>
+        <v>-125.461</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-92.2</v>
+        <v>-262.06200000000001</v>
       </c>
       <c r="AA25">
-        <v>144.4</v>
+        <v>120.818</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39538</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>31.3</v>
+        <v>186.83</v>
       </c>
       <c r="D26">
-        <v>1752.4</v>
+        <v>2177.3249999999998</v>
       </c>
       <c r="E26">
-        <v>1072.4000000000001</v>
+        <v>621.15</v>
       </c>
       <c r="F26">
-        <v>187.4</v>
+        <v>561.61599999999999</v>
       </c>
       <c r="G26">
-        <v>11691.5</v>
+        <v>6345.0529999999999</v>
       </c>
       <c r="H26">
-        <v>29709.1</v>
+        <v>26446.415000000001</v>
       </c>
       <c r="I26">
-        <v>5459.7</v>
+        <v>4791.9809999999998</v>
       </c>
       <c r="J26">
-        <v>1067</v>
+        <v>971.88599999999997</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2869,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>12472.4</v>
+        <v>10525.096</v>
       </c>
       <c r="O26">
-        <v>25611</v>
+        <v>22228.04</v>
       </c>
       <c r="P26">
-        <v>1067</v>
+        <v>971.88599999999997</v>
       </c>
       <c r="Q26">
-        <v>-84.7</v>
+        <v>215.63</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39538</v>
       </c>
       <c r="S26">
-        <v>14700</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>4098.1000000000004</v>
+        <v>4218.375</v>
       </c>
       <c r="U26">
-        <v>1032</v>
+        <v>1020.5940000000001</v>
       </c>
       <c r="V26">
-        <v>176.6</v>
+        <v>450.19200000000001</v>
       </c>
       <c r="W26">
-        <v>-30.3</v>
+        <v>-14.173</v>
       </c>
       <c r="X26">
-        <v>-345</v>
+        <v>-43.877000000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>140.80000000000001</v>
+        <v>-158.19300000000001</v>
       </c>
       <c r="AA26">
-        <v>31.3</v>
+        <v>186.83</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39629</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>143.80000000000001</v>
+        <v>189.95400000000001</v>
       </c>
       <c r="D27">
-        <v>1551.5</v>
+        <v>2248.7600000000002</v>
       </c>
       <c r="E27">
-        <v>1244</v>
+        <v>528.351</v>
       </c>
       <c r="F27">
-        <v>268.7</v>
+        <v>491.78899999999999</v>
       </c>
       <c r="G27">
-        <v>11338.2</v>
+        <v>6083.0370000000003</v>
       </c>
       <c r="H27">
-        <v>29567.7</v>
+        <v>26212.031999999999</v>
       </c>
       <c r="I27">
-        <v>5240</v>
+        <v>4667.1329999999998</v>
       </c>
       <c r="J27">
-        <v>1067.3</v>
+        <v>971.90899999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2952,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>12233.3</v>
+        <v>10400.455</v>
       </c>
       <c r="O27">
-        <v>25408.9</v>
+        <v>21953.392</v>
       </c>
       <c r="P27">
-        <v>1067.3</v>
+        <v>971.90899999999999</v>
       </c>
       <c r="Q27">
-        <v>-157.5</v>
+        <v>-63.991</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39629</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4158.8</v>
+        <v>4258.6400000000003</v>
       </c>
       <c r="U27">
-        <v>874.5</v>
+        <v>956.60299999999995</v>
       </c>
       <c r="V27">
-        <v>24.2</v>
+        <v>-16.532</v>
       </c>
       <c r="W27">
-        <v>-29.7</v>
+        <v>-16.567</v>
       </c>
       <c r="X27">
-        <v>-127.7</v>
+        <v>-22.39</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>89.4</v>
+        <v>-40.531999999999996</v>
       </c>
       <c r="AA27">
-        <v>143.80000000000001</v>
+        <v>189.95400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39721</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>120.2</v>
+        <v>-111.429</v>
       </c>
       <c r="D28">
-        <v>1600.5</v>
+        <v>1954.5350000000001</v>
       </c>
       <c r="E28">
-        <v>1336.3</v>
+        <v>514.55100000000004</v>
       </c>
       <c r="F28">
-        <v>205.1</v>
+        <v>90.173000000000002</v>
       </c>
       <c r="G28">
-        <v>11479.4</v>
+        <v>6391.8689999999997</v>
       </c>
       <c r="H28">
-        <v>30058.9</v>
+        <v>25354.314999999999</v>
       </c>
       <c r="I28">
-        <v>5320</v>
+        <v>4762.6589999999997</v>
       </c>
       <c r="J28">
-        <v>1136.5999999999999</v>
+        <v>971.93299999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,81 +3035,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>12412.7</v>
+        <v>10557.522999999999</v>
       </c>
       <c r="O28">
-        <v>25834.3</v>
+        <v>21611.344000000001</v>
       </c>
       <c r="P28">
-        <v>1136.5999999999999</v>
+        <v>971.93299999999999</v>
       </c>
       <c r="Q28">
-        <v>-26.3</v>
+        <v>97.075999999999993</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39721</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4224.6000000000004</v>
+        <v>3742.971</v>
       </c>
       <c r="U28">
-        <v>848.2</v>
+        <v>1053.6790000000001</v>
       </c>
       <c r="V28">
-        <v>-24.5</v>
+        <v>380.71100000000001</v>
       </c>
       <c r="W28">
-        <v>-30.3</v>
+        <v>-16.463000000000001</v>
       </c>
       <c r="X28">
-        <v>-64.599999999999994</v>
+        <v>-229.88800000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>73.599999999999994</v>
+        <v>-26.004000000000001</v>
       </c>
       <c r="AA28">
-        <v>120.2</v>
+        <v>-111.429</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39813</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-57.3</v>
+        <v>182.441</v>
       </c>
       <c r="D29">
-        <v>1586.4</v>
+        <v>2220.6080000000002</v>
       </c>
       <c r="E29">
-        <v>1286.4000000000001</v>
+        <v>390.935</v>
       </c>
       <c r="F29">
-        <v>-48.5</v>
+        <v>446.995</v>
       </c>
       <c r="G29">
-        <v>13359.4</v>
+        <v>6639.5810000000001</v>
       </c>
       <c r="H29">
-        <v>32405.200000000001</v>
+        <v>24514.585999999999</v>
       </c>
       <c r="I29">
-        <v>7193.6</v>
+        <v>4862.585</v>
       </c>
       <c r="J29">
-        <v>1067.9000000000001</v>
+        <v>983.11699999999996</v>
       </c>
       <c r="K29">
-        <v>157.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,78 +3118,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>14691.4</v>
+        <v>10503.644</v>
       </c>
       <c r="O29">
-        <v>28267</v>
+        <v>20805.080999999998</v>
       </c>
       <c r="P29">
-        <v>1225.5999999999999</v>
+        <v>983.11699999999996</v>
       </c>
       <c r="Q29">
-        <v>144.6</v>
+        <v>-12.994999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39813</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="T29">
-        <v>4138.2</v>
+        <v>3709.5050000000001</v>
       </c>
       <c r="U29">
-        <v>992.8</v>
+        <v>1040.684</v>
       </c>
       <c r="V29">
-        <v>366.7</v>
+        <v>184.76400000000001</v>
       </c>
       <c r="W29">
-        <v>-28.8</v>
+        <v>-16.469000000000001</v>
       </c>
       <c r="X29">
-        <v>22.6</v>
+        <v>-115.979</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-214.9</v>
+        <v>92.465999999999994</v>
       </c>
       <c r="AA29">
-        <v>-57.3</v>
+        <v>182.441</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39903</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>312.89999999999998</v>
+        <v>80.581000000000003</v>
       </c>
       <c r="D30">
-        <v>1676.6</v>
+        <v>2087.877</v>
       </c>
       <c r="E30">
-        <v>1115.5</v>
+        <v>439.53399999999999</v>
       </c>
       <c r="F30">
-        <v>252.3</v>
+        <v>405.45800000000003</v>
       </c>
       <c r="G30">
-        <v>12631.6</v>
+        <v>5998.5379999999996</v>
       </c>
       <c r="H30">
-        <v>31843</v>
+        <v>23820.644</v>
       </c>
       <c r="I30">
-        <v>6146.9</v>
+        <v>4549.8540000000003</v>
       </c>
       <c r="J30">
-        <v>1169.0999999999999</v>
+        <v>980.14200000000005</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3201,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>13900.4</v>
+        <v>10034.494000000001</v>
       </c>
       <c r="O30">
-        <v>27561.5</v>
+        <v>20150.322</v>
       </c>
       <c r="P30">
-        <v>1518.9</v>
+        <v>980.14200000000005</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>-376.34500000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39903</v>
       </c>
       <c r="S30">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>4281.5</v>
+        <v>3670.3220000000001</v>
       </c>
       <c r="U30">
-        <v>1066.5999999999999</v>
+        <v>664.33900000000006</v>
       </c>
       <c r="V30">
-        <v>164</v>
+        <v>-264.56900000000002</v>
       </c>
       <c r="W30">
-        <v>-30.2</v>
+        <v>-16.489000000000001</v>
       </c>
       <c r="X30">
-        <v>143</v>
+        <v>-74.034000000000006</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-286.7</v>
+        <v>-86.960999999999999</v>
       </c>
       <c r="AA30">
-        <v>312.89999999999998</v>
+        <v>80.581000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39994</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>106</v>
+        <v>193.322</v>
       </c>
       <c r="D31">
-        <v>1638.6</v>
+        <v>2273.6089999999999</v>
       </c>
       <c r="E31">
-        <v>1248.5</v>
+        <v>582.18899999999996</v>
       </c>
       <c r="F31">
-        <v>210.7</v>
+        <v>539.54100000000005</v>
       </c>
       <c r="G31">
-        <v>13240.5</v>
+        <v>6136.2</v>
       </c>
       <c r="H31">
-        <v>32427.9</v>
+        <v>24822.473999999998</v>
       </c>
       <c r="I31">
-        <v>5327.4</v>
+        <v>4669.8639999999996</v>
       </c>
       <c r="J31">
-        <v>2004.4</v>
+        <v>980.16700000000003</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,84 +3281,84 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>12757.1</v>
+        <v>10111.049000000001</v>
       </c>
       <c r="O31">
-        <v>27926.9</v>
+        <v>20457.897000000001</v>
       </c>
       <c r="P31">
-        <v>2004.4</v>
+        <v>980.16700000000003</v>
       </c>
       <c r="Q31">
-        <v>1345.2</v>
+        <v>144.84299999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39994</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4501</v>
+        <v>4364.5770000000002</v>
       </c>
       <c r="U31">
-        <v>2372.1</v>
+        <v>809.18200000000002</v>
       </c>
       <c r="V31">
-        <v>-75.7</v>
+        <v>90.811999999999998</v>
       </c>
       <c r="W31">
-        <v>-29.7</v>
+        <v>-17.771000000000001</v>
       </c>
       <c r="X31">
-        <v>1344</v>
+        <v>3.51</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>113</v>
+        <v>54.738</v>
       </c>
       <c r="AA31">
-        <v>106</v>
+        <v>193.322</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40086</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>67</v>
+        <v>144.72999999999999</v>
       </c>
       <c r="D32">
-        <v>1831.7</v>
+        <v>2156.873</v>
       </c>
       <c r="E32">
-        <v>1512.7</v>
+        <v>515.63099999999997</v>
       </c>
       <c r="F32">
-        <v>215.2</v>
+        <v>457.02100000000002</v>
       </c>
       <c r="G32">
-        <v>14383.2</v>
+        <v>6443.6710000000003</v>
       </c>
       <c r="H32">
-        <v>42361.3</v>
+        <v>25665.578000000001</v>
       </c>
       <c r="I32">
-        <v>6752.7</v>
+        <v>4763.3819999999996</v>
       </c>
       <c r="J32">
-        <v>2004.8</v>
+        <v>980.19200000000001</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>197.28800000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3367,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>21565.8</v>
+        <v>10392.368</v>
       </c>
       <c r="O32">
-        <v>37028.400000000001</v>
+        <v>20762.129000000001</v>
       </c>
       <c r="P32">
-        <v>2004.8</v>
+        <v>1177.48</v>
       </c>
       <c r="Q32">
-        <v>-1088.3</v>
+        <v>426.66899999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40086</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5332.9</v>
+        <v>4903.4489999999996</v>
       </c>
       <c r="U32">
-        <v>1288.7</v>
+        <v>1235.8510000000001</v>
       </c>
       <c r="V32">
-        <v>248</v>
+        <v>386.79599999999999</v>
       </c>
       <c r="W32">
-        <v>-35.700000000000003</v>
+        <v>-17.701000000000001</v>
       </c>
       <c r="X32">
-        <v>300.5</v>
+        <v>-77.314999999999998</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-321.8</v>
+        <v>79.363</v>
       </c>
       <c r="AA32">
-        <v>67</v>
+        <v>144.72999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40178</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>11.941000000000001</v>
       </c>
       <c r="D33">
-        <v>2270.3000000000002</v>
+        <v>2182.1419999999998</v>
       </c>
       <c r="E33">
-        <v>1601</v>
+        <v>390.86</v>
       </c>
       <c r="F33">
-        <v>173</v>
+        <v>409.24299999999999</v>
       </c>
       <c r="G33">
-        <v>15094.2</v>
+        <v>6680.4</v>
       </c>
       <c r="H33">
-        <v>43443.1</v>
+        <v>25860.667000000001</v>
       </c>
       <c r="I33">
-        <v>6467</v>
+        <v>4918.3069999999998</v>
       </c>
       <c r="J33">
-        <v>2005.4</v>
+        <v>980.21799999999996</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>220.279</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3450,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>22281.1</v>
+        <v>10518.014999999999</v>
       </c>
       <c r="O33">
-        <v>38203.4</v>
+        <v>21007.418000000001</v>
       </c>
       <c r="P33">
-        <v>2005.4</v>
+        <v>1200.4970000000001</v>
       </c>
       <c r="Q33">
-        <v>52.9</v>
+        <v>82.700999999999993</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40178</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="T33">
-        <v>5239.7</v>
+        <v>4853.2489999999998</v>
       </c>
       <c r="U33">
-        <v>1431.9</v>
+        <v>1318.5519999999999</v>
       </c>
       <c r="V33">
-        <v>282.3</v>
+        <v>56.886000000000003</v>
       </c>
       <c r="W33">
-        <v>-40.200000000000003</v>
+        <v>-17.635000000000002</v>
       </c>
       <c r="X33">
-        <v>145.9</v>
+        <v>5.2770000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-371.7</v>
+        <v>33.427999999999997</v>
       </c>
       <c r="AA33">
-        <v>53</v>
+        <v>11.941000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40268</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>157.22300000000001</v>
       </c>
       <c r="D34">
-        <v>2317</v>
+        <v>2167.8560000000002</v>
       </c>
       <c r="E34">
-        <v>1562.9</v>
+        <v>513.82000000000005</v>
       </c>
       <c r="F34">
-        <v>143.9</v>
+        <v>491.61799999999999</v>
       </c>
       <c r="G34">
-        <v>12671.4</v>
+        <v>6646.6779999999999</v>
       </c>
       <c r="H34">
-        <v>41089.300000000003</v>
+        <v>26238.813999999998</v>
       </c>
       <c r="I34">
-        <v>5555.4</v>
+        <v>4860.6809999999996</v>
       </c>
       <c r="J34">
-        <v>3322.7</v>
+        <v>980.24400000000003</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>143.43899999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3533,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>21542</v>
+        <v>10377.848</v>
       </c>
       <c r="O34">
-        <v>35955.4</v>
+        <v>21265.228999999999</v>
       </c>
       <c r="P34">
-        <v>3322.7</v>
+        <v>1123.683</v>
       </c>
       <c r="Q34">
-        <v>-52.6</v>
+        <v>-386.01100000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40268</v>
       </c>
       <c r="S34">
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5133.8999999999996</v>
+        <v>4973.585</v>
       </c>
       <c r="U34">
-        <v>1316.6</v>
+        <v>932.54100000000005</v>
       </c>
       <c r="V34">
-        <v>202.1</v>
+        <v>121.893</v>
       </c>
       <c r="W34">
-        <v>-42.4</v>
+        <v>-17.588000000000001</v>
       </c>
       <c r="X34">
-        <v>47.6</v>
+        <v>-198.69499999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-396.9</v>
+        <v>-385.75599999999997</v>
       </c>
       <c r="AA34">
-        <v>25</v>
+        <v>157.22300000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40359</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>165.7</v>
+        <v>164.67500000000001</v>
       </c>
       <c r="D35">
-        <v>2435.4</v>
+        <v>2140.2939999999999</v>
       </c>
       <c r="E35">
-        <v>1695.5</v>
+        <v>523.65700000000004</v>
       </c>
       <c r="F35">
-        <v>290</v>
+        <v>501.92500000000001</v>
       </c>
       <c r="G35">
-        <v>12665.2</v>
+        <v>6767.3310000000001</v>
       </c>
       <c r="H35">
-        <v>42237</v>
+        <v>26115.33</v>
       </c>
       <c r="I35">
-        <v>5648.4</v>
+        <v>5006.1049999999996</v>
       </c>
       <c r="J35">
-        <v>3610.2</v>
+        <v>980.27</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>134.75800000000001</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-317.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>21623.5</v>
+        <v>10367.295</v>
       </c>
       <c r="O35">
-        <v>36765.300000000003</v>
+        <v>21077.162</v>
       </c>
       <c r="P35">
-        <v>3691.5</v>
+        <v>1115.028</v>
       </c>
       <c r="Q35">
-        <v>20.2</v>
+        <v>71.182000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40359</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5471.7</v>
+        <v>5038.1679999999997</v>
       </c>
       <c r="U35">
-        <v>1384.6</v>
+        <v>1003.723</v>
       </c>
       <c r="V35">
-        <v>246.7</v>
+        <v>196.39099999999999</v>
       </c>
       <c r="W35">
-        <v>-42.1</v>
+        <v>-17.876000000000001</v>
       </c>
       <c r="X35">
-        <v>220.9</v>
+        <v>-241.59399999999999</v>
       </c>
       <c r="Y35">
-        <v>81.3</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-418.4</v>
+        <v>101.61</v>
       </c>
       <c r="AA35">
-        <v>165.7</v>
+        <v>164.67500000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40451</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>144.1</v>
+        <v>141.66999999999999</v>
       </c>
       <c r="D36">
-        <v>2536.3000000000002</v>
+        <v>2113.971</v>
       </c>
       <c r="E36">
-        <v>1745.7</v>
+        <v>545.16700000000003</v>
       </c>
       <c r="F36">
-        <v>275.3</v>
+        <v>474.64699999999999</v>
       </c>
       <c r="G36">
-        <v>12992.7</v>
+        <v>7251.6459999999997</v>
       </c>
       <c r="H36">
-        <v>43139.5</v>
+        <v>26845.333999999999</v>
       </c>
       <c r="I36">
-        <v>5772.4</v>
+        <v>4987.7349999999997</v>
       </c>
       <c r="J36">
-        <v>3623.8</v>
+        <v>980.29700000000003</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>135.24799999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3699,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>22154.799999999999</v>
+        <v>10350.807000000001</v>
       </c>
       <c r="O36">
-        <v>37379.199999999997</v>
+        <v>21478.793000000001</v>
       </c>
       <c r="P36">
-        <v>3708.5</v>
+        <v>1115.5450000000001</v>
       </c>
       <c r="Q36">
-        <v>216.2</v>
+        <v>164.584</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40451</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5760.3</v>
+        <v>5366.5410000000002</v>
       </c>
       <c r="U36">
-        <v>1575.2</v>
+        <v>1168.307</v>
       </c>
       <c r="V36">
-        <v>479</v>
+        <v>147.17699999999999</v>
       </c>
       <c r="W36">
-        <v>-42.9</v>
+        <v>-17.238</v>
       </c>
       <c r="X36">
-        <v>-102.3</v>
+        <v>-73.268000000000001</v>
       </c>
       <c r="Y36">
-        <v>84.7</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-115.8</v>
+        <v>91.066000000000003</v>
       </c>
       <c r="AA36">
-        <v>144.1</v>
+        <v>141.66999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40543</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-54.8</v>
+        <v>-184.39099999999999</v>
       </c>
       <c r="D37">
-        <v>2378.1999999999998</v>
+        <v>2105.6010000000001</v>
       </c>
       <c r="E37">
-        <v>1767.1</v>
+        <v>435.20600000000002</v>
       </c>
       <c r="F37">
-        <v>101.1</v>
+        <v>423.81599999999997</v>
       </c>
       <c r="G37">
-        <v>13501</v>
+        <v>7206.3549999999996</v>
       </c>
       <c r="H37">
-        <v>43751.5</v>
+        <v>26397.018</v>
       </c>
       <c r="I37">
-        <v>5969.7</v>
+        <v>4860.9780000000001</v>
       </c>
       <c r="J37">
-        <v>3616.5</v>
+        <v>977.16399999999999</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>137.21199999999999</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3782,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>22864.1</v>
+        <v>10357.050999999999</v>
       </c>
       <c r="O37">
-        <v>38061.1</v>
+        <v>21616.481</v>
       </c>
       <c r="P37">
-        <v>3699.5</v>
+        <v>1114.376</v>
       </c>
       <c r="Q37">
-        <v>258.89999999999998</v>
+        <v>-17.791</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40543</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="T37">
-        <v>5690.4</v>
+        <v>4780.5370000000003</v>
       </c>
       <c r="U37">
-        <v>1813.6</v>
+        <v>1150.5160000000001</v>
       </c>
       <c r="V37">
-        <v>442.2</v>
+        <v>75.281000000000006</v>
       </c>
       <c r="W37">
-        <v>-42</v>
+        <v>-16.916</v>
       </c>
       <c r="X37">
-        <v>-168.7</v>
+        <v>-185.916</v>
       </c>
       <c r="Y37">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>29.7</v>
+        <v>57.286000000000001</v>
       </c>
       <c r="AA37">
-        <v>-54.8</v>
+        <v>-184.39099999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40633</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>127.6</v>
+        <v>140.751</v>
       </c>
       <c r="D38">
-        <v>2573.9</v>
+        <v>2036.671</v>
       </c>
       <c r="E38">
-        <v>1617.6</v>
+        <v>576.08799999999997</v>
       </c>
       <c r="F38">
-        <v>323.2</v>
+        <v>440.44</v>
       </c>
       <c r="G38">
-        <v>13749.1</v>
+        <v>7162.393</v>
       </c>
       <c r="H38">
-        <v>44291.199999999997</v>
+        <v>26697.375</v>
       </c>
       <c r="I38">
-        <v>5946.1</v>
+        <v>4915.1000000000004</v>
       </c>
       <c r="J38">
-        <v>3610</v>
+        <v>972.19200000000001</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>272.358</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3865,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>23090.2</v>
+        <v>10621.894</v>
       </c>
       <c r="O38">
-        <v>38609.1</v>
+        <v>21949.982</v>
       </c>
       <c r="P38">
-        <v>3686.4</v>
+        <v>1244.55</v>
       </c>
       <c r="Q38">
-        <v>117.8</v>
+        <v>-210.08199999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40633</v>
       </c>
       <c r="S38">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>5682.1</v>
+        <v>4747.393</v>
       </c>
       <c r="U38">
-        <v>1900</v>
+        <v>940.43399999999997</v>
       </c>
       <c r="V38">
-        <v>245.5</v>
+        <v>183.626</v>
       </c>
       <c r="W38">
-        <v>-43</v>
+        <v>-16.122</v>
       </c>
       <c r="X38">
-        <v>-129.1</v>
+        <v>-231.07</v>
       </c>
       <c r="Y38">
-        <v>76.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>46.6</v>
+        <v>-187.24799999999999</v>
       </c>
       <c r="AA38">
-        <v>127.6</v>
+        <v>140.751</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40724</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>154.69999999999999</v>
+        <v>165.01599999999999</v>
       </c>
       <c r="D39">
-        <v>2564.1999999999998</v>
+        <v>2062.8870000000002</v>
       </c>
       <c r="E39">
-        <v>1636</v>
+        <v>612.52200000000005</v>
       </c>
       <c r="F39">
-        <v>184.6</v>
+        <v>349.58800000000002</v>
       </c>
       <c r="G39">
-        <v>13643.5</v>
+        <v>7494.3509999999997</v>
       </c>
       <c r="H39">
-        <v>43423.3</v>
+        <v>26779.755000000001</v>
       </c>
       <c r="I39">
-        <v>5709.4</v>
+        <v>5000.3919999999998</v>
       </c>
       <c r="J39">
-        <v>3771.5</v>
+        <v>972.22</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>93.125</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>22850.400000000001</v>
+        <v>10598.753000000001</v>
       </c>
       <c r="O39">
-        <v>38037.1</v>
+        <v>21903.778999999999</v>
       </c>
       <c r="P39">
-        <v>3821.4</v>
+        <v>1065.345</v>
       </c>
       <c r="Q39">
-        <v>132.80000000000001</v>
+        <v>194.66499999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40724</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5386.2</v>
+        <v>4875.9759999999997</v>
       </c>
       <c r="U39">
-        <v>2035</v>
+        <v>1135.0989999999999</v>
       </c>
       <c r="V39">
-        <v>-123.7</v>
+        <v>140.125</v>
       </c>
       <c r="W39">
-        <v>-42.7</v>
+        <v>-17.558</v>
       </c>
       <c r="X39">
-        <v>91.4</v>
+        <v>-127.57599999999999</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>193.1</v>
+        <v>224.26900000000001</v>
       </c>
       <c r="AA39">
-        <v>154.69999999999999</v>
+        <v>165.01599999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40816</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>178.1</v>
+        <v>74.037000000000006</v>
       </c>
       <c r="D40">
-        <v>2467.1</v>
+        <v>2061.7150000000001</v>
       </c>
       <c r="E40">
-        <v>1475.4</v>
+        <v>614.27700000000004</v>
       </c>
       <c r="F40">
-        <v>311.8</v>
+        <v>331.27100000000002</v>
       </c>
       <c r="G40">
-        <v>13580.9</v>
+        <v>7667.8379999999997</v>
       </c>
       <c r="H40">
-        <v>44233.2</v>
+        <v>26774</v>
       </c>
       <c r="I40">
-        <v>5714.8</v>
+        <v>5083.6660000000002</v>
       </c>
       <c r="J40">
-        <v>3663.1</v>
+        <v>972.24900000000002</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>96.448999999999998</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4031,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>22795.599999999999</v>
+        <v>10754.892</v>
       </c>
       <c r="O40">
-        <v>38248.699999999997</v>
+        <v>21759.527999999998</v>
       </c>
       <c r="P40">
-        <v>3713</v>
+        <v>1068.6980000000001</v>
       </c>
       <c r="Q40">
-        <v>137.6</v>
+        <v>-75.575999999999993</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40816</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5984.5</v>
+        <v>5014.4719999999998</v>
       </c>
       <c r="U40">
-        <v>2152.4</v>
+        <v>1059.5229999999999</v>
       </c>
       <c r="V40">
-        <v>415.9</v>
+        <v>185.94</v>
       </c>
       <c r="W40">
-        <v>-44.2</v>
+        <v>-17.178000000000001</v>
       </c>
       <c r="X40">
-        <v>-79.400000000000006</v>
+        <v>-91.510999999999996</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-82.8</v>
+        <v>-155.375</v>
       </c>
       <c r="AA40">
-        <v>178.1</v>
+        <v>74.037000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40908</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-30.2</v>
+        <v>159.15199999999999</v>
       </c>
       <c r="D41">
-        <v>2502.5</v>
+        <v>2111.5309999999999</v>
       </c>
       <c r="E41">
-        <v>1576.7</v>
+        <v>521.59400000000005</v>
       </c>
       <c r="F41">
-        <v>194.5</v>
+        <v>466.76900000000001</v>
       </c>
       <c r="G41">
-        <v>13958.9</v>
+        <v>7830.5860000000002</v>
       </c>
       <c r="H41">
-        <v>43582.6</v>
+        <v>27019.862000000001</v>
       </c>
       <c r="I41">
-        <v>5971.2</v>
+        <v>5117.7020000000002</v>
       </c>
       <c r="J41">
-        <v>1958.6</v>
+        <v>972.27800000000002</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>95.494</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4114,3033 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>23684.799999999999</v>
+        <v>10964.102999999999</v>
       </c>
       <c r="O41">
-        <v>37642.6</v>
+        <v>22145.912</v>
       </c>
       <c r="P41">
-        <v>2008.6</v>
+        <v>1067.7719999999999</v>
       </c>
       <c r="Q41">
-        <v>65.5</v>
+        <v>107.19</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40908</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="T41">
-        <v>5940</v>
+        <v>4873.95</v>
       </c>
       <c r="U41">
-        <v>2203</v>
+        <v>1166.713</v>
       </c>
       <c r="V41">
-        <v>609.4</v>
+        <v>345.613</v>
       </c>
       <c r="W41">
-        <v>-42.2</v>
+        <v>-16.527000000000001</v>
       </c>
       <c r="X41">
-        <v>-308.8</v>
+        <v>-186.691</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-196.2</v>
+        <v>-38.457000000000001</v>
       </c>
       <c r="AA41">
-        <v>-30.2</v>
+        <v>159.15199999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40999</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>163.26</v>
+      </c>
+      <c r="D42">
+        <v>2072.924</v>
+      </c>
+      <c r="E42">
+        <v>672.2</v>
+      </c>
+      <c r="F42">
+        <v>458.173</v>
+      </c>
+      <c r="G42">
+        <v>7713.6419999999998</v>
+      </c>
+      <c r="H42">
+        <v>27254.867999999999</v>
+      </c>
+      <c r="I42">
+        <v>4964.66</v>
+      </c>
+      <c r="J42">
+        <v>972.30799999999999</v>
+      </c>
+      <c r="K42">
+        <v>94.29</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>10888.967000000001</v>
+      </c>
+      <c r="O42">
+        <v>22289.977999999999</v>
+      </c>
+      <c r="P42">
+        <v>1066.598</v>
+      </c>
+      <c r="Q42">
+        <v>-101.898</v>
+      </c>
+      <c r="R42">
+        <v>40999</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>4964.8900000000003</v>
+      </c>
+      <c r="U42">
+        <v>1064.8150000000001</v>
+      </c>
+      <c r="V42">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-15.941000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-122.3</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>27.204000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>163.26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>169.17</v>
+      </c>
+      <c r="D43">
+        <v>2129.29</v>
+      </c>
+      <c r="E43">
+        <v>685.82</v>
+      </c>
+      <c r="F43">
+        <v>472.93099999999998</v>
+      </c>
+      <c r="G43">
+        <v>7889.5640000000003</v>
+      </c>
+      <c r="H43">
+        <v>27243.589</v>
+      </c>
+      <c r="I43">
+        <v>4930.7820000000002</v>
+      </c>
+      <c r="J43">
+        <v>972.33699999999999</v>
+      </c>
+      <c r="K43">
+        <v>94.614999999999995</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>10926.925999999999</v>
+      </c>
+      <c r="O43">
+        <v>22210.021000000001</v>
+      </c>
+      <c r="P43">
+        <v>1066.952</v>
+      </c>
+      <c r="Q43">
+        <v>42.177</v>
+      </c>
+      <c r="R43">
+        <v>41090</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5033.5680000000002</v>
+      </c>
+      <c r="U43">
+        <v>1106.992</v>
+      </c>
+      <c r="V43">
+        <v>183.49</v>
+      </c>
+      <c r="W43">
+        <v>-19.408000000000001</v>
+      </c>
+      <c r="X43">
+        <v>-170.23599999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>41.569000000000003</v>
+      </c>
+      <c r="AA43">
+        <v>169.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>126.288</v>
+      </c>
+      <c r="D44">
+        <v>2145.08</v>
+      </c>
+      <c r="E44">
+        <v>760.67600000000004</v>
+      </c>
+      <c r="F44">
+        <v>420.77100000000002</v>
+      </c>
+      <c r="G44">
+        <v>7786.88</v>
+      </c>
+      <c r="H44">
+        <v>28169.623</v>
+      </c>
+      <c r="I44">
+        <v>5143.7520000000004</v>
+      </c>
+      <c r="J44">
+        <v>972.36800000000005</v>
+      </c>
+      <c r="K44">
+        <v>94.024000000000001</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>11416.647999999999</v>
+      </c>
+      <c r="O44">
+        <v>22940.01</v>
+      </c>
+      <c r="P44">
+        <v>1066.3920000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-34.485999999999997</v>
+      </c>
+      <c r="R44">
+        <v>41182</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5229.6130000000003</v>
+      </c>
+      <c r="U44">
+        <v>1072.5060000000001</v>
+      </c>
+      <c r="V44">
+        <v>244.648</v>
+      </c>
+      <c r="W44">
+        <v>-17.283999999999999</v>
+      </c>
+      <c r="X44">
+        <v>-129.572</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-134.357</v>
+      </c>
+      <c r="AA44">
+        <v>126.288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>24.986999999999998</v>
+      </c>
+      <c r="D45">
+        <v>2160.9760000000001</v>
+      </c>
+      <c r="E45">
+        <v>686.77700000000004</v>
+      </c>
+      <c r="F45">
+        <v>251.13300000000001</v>
+      </c>
+      <c r="G45">
+        <v>8369.7510000000002</v>
+      </c>
+      <c r="H45">
+        <v>28946.607</v>
+      </c>
+      <c r="I45">
+        <v>5639.902</v>
+      </c>
+      <c r="J45">
+        <v>972.399</v>
+      </c>
+      <c r="K45">
+        <v>94.713999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>12266.556</v>
+      </c>
+      <c r="O45">
+        <v>23761.241000000002</v>
+      </c>
+      <c r="P45">
+        <v>1067.1130000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-163.102</v>
+      </c>
+      <c r="R45">
+        <v>41274</v>
+      </c>
+      <c r="S45">
+        <v>14600</v>
+      </c>
+      <c r="T45">
+        <v>5185.366</v>
+      </c>
+      <c r="U45">
+        <v>909.404</v>
+      </c>
+      <c r="V45">
+        <v>250.53899999999999</v>
+      </c>
+      <c r="W45">
+        <v>-16.760000000000002</v>
+      </c>
+      <c r="X45">
+        <v>-58.533000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-330.39600000000002</v>
+      </c>
+      <c r="AA45">
+        <v>24.986999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>117.78</v>
+      </c>
+      <c r="D46">
+        <v>2150.623</v>
+      </c>
+      <c r="E46">
+        <v>890.9</v>
+      </c>
+      <c r="F46">
+        <v>414.47399999999999</v>
+      </c>
+      <c r="G46">
+        <v>8773.6329999999998</v>
+      </c>
+      <c r="H46">
+        <v>29481.54</v>
+      </c>
+      <c r="I46">
+        <v>5379.9989999999998</v>
+      </c>
+      <c r="J46">
+        <v>1670.5229999999999</v>
+      </c>
+      <c r="K46">
+        <v>94.611000000000004</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>11994.721</v>
+      </c>
+      <c r="O46">
+        <v>24274.935000000001</v>
+      </c>
+      <c r="P46">
+        <v>1765.134</v>
+      </c>
+      <c r="Q46">
+        <v>695.221</v>
+      </c>
+      <c r="R46">
+        <v>41364</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>5206.6049999999996</v>
+      </c>
+      <c r="U46">
+        <v>1604.625</v>
+      </c>
+      <c r="V46">
+        <v>51.680999999999997</v>
+      </c>
+      <c r="W46">
+        <v>-16.789000000000001</v>
+      </c>
+      <c r="X46">
+        <v>670.17200000000003</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-27.204000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>133.523</v>
+      </c>
+      <c r="D47">
+        <v>2237.7660000000001</v>
+      </c>
+      <c r="E47">
+        <v>884.952</v>
+      </c>
+      <c r="F47">
+        <v>425.613</v>
+      </c>
+      <c r="G47">
+        <v>8760.0810000000001</v>
+      </c>
+      <c r="H47">
+        <v>28728.794999999998</v>
+      </c>
+      <c r="I47">
+        <v>5126.4290000000001</v>
+      </c>
+      <c r="J47">
+        <v>1646.89</v>
+      </c>
+      <c r="K47">
+        <v>96</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>11837.62</v>
+      </c>
+      <c r="O47">
+        <v>23932.909</v>
+      </c>
+      <c r="P47">
+        <v>1742.89</v>
+      </c>
+      <c r="Q47">
+        <v>-334.23</v>
+      </c>
+      <c r="R47">
+        <v>41455</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4795.8860000000004</v>
+      </c>
+      <c r="U47">
+        <v>1270.395</v>
+      </c>
+      <c r="V47">
+        <v>221.98099999999999</v>
+      </c>
+      <c r="W47">
+        <v>-20.155000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-226.67500000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-336.60599999999999</v>
+      </c>
+      <c r="AA47">
+        <v>133.523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>128.78800000000001</v>
+      </c>
+      <c r="D48">
+        <v>2258.65</v>
+      </c>
+      <c r="E48">
+        <v>983.16600000000005</v>
+      </c>
+      <c r="F48">
+        <v>409.15699999999998</v>
+      </c>
+      <c r="G48">
+        <v>9087.7170000000006</v>
+      </c>
+      <c r="H48">
+        <v>29348.584999999999</v>
+      </c>
+      <c r="I48">
+        <v>5365.0519999999997</v>
+      </c>
+      <c r="J48">
+        <v>1638.3879999999999</v>
+      </c>
+      <c r="K48">
+        <v>95.760999999999996</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>12298.627</v>
+      </c>
+      <c r="O48">
+        <v>24565.666000000001</v>
+      </c>
+      <c r="P48">
+        <v>1734.1489999999999</v>
+      </c>
+      <c r="Q48">
+        <v>16.302</v>
+      </c>
+      <c r="R48">
+        <v>41547</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4782.9189999999999</v>
+      </c>
+      <c r="U48">
+        <v>1286.6969999999999</v>
+      </c>
+      <c r="V48">
+        <v>450.37599999999998</v>
+      </c>
+      <c r="W48">
+        <v>-18.832999999999998</v>
+      </c>
+      <c r="X48">
+        <v>-133.792</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-235.62100000000001</v>
+      </c>
+      <c r="AA48">
+        <v>128.78800000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>108.816</v>
+      </c>
+      <c r="D49">
+        <v>2400.6179999999999</v>
+      </c>
+      <c r="E49">
+        <v>904.81399999999996</v>
+      </c>
+      <c r="F49">
+        <v>551.69200000000001</v>
+      </c>
+      <c r="G49">
+        <v>9167.6270000000004</v>
+      </c>
+      <c r="H49">
+        <v>29714.688999999998</v>
+      </c>
+      <c r="I49">
+        <v>5364.5770000000002</v>
+      </c>
+      <c r="J49">
+        <v>1638.1179999999999</v>
+      </c>
+      <c r="K49">
+        <v>95.206000000000003</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>12555.462</v>
+      </c>
+      <c r="O49">
+        <v>24881.21</v>
+      </c>
+      <c r="P49">
+        <v>1733.3240000000001</v>
+      </c>
+      <c r="Q49">
+        <v>430.48700000000002</v>
+      </c>
+      <c r="R49">
+        <v>41639</v>
+      </c>
+      <c r="S49">
+        <v>16600</v>
+      </c>
+      <c r="T49">
+        <v>4833.4790000000003</v>
+      </c>
+      <c r="U49">
+        <v>1717.184</v>
+      </c>
+      <c r="V49">
+        <v>303.52300000000002</v>
+      </c>
+      <c r="W49">
+        <v>-18.350999999999999</v>
+      </c>
+      <c r="X49">
+        <v>-113.006</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>416.01400000000001</v>
+      </c>
+      <c r="AA49">
+        <v>108.816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>137.245</v>
+      </c>
+      <c r="D50">
+        <v>2448.3719999999998</v>
+      </c>
+      <c r="E50">
+        <v>1129.27</v>
+      </c>
+      <c r="F50">
+        <v>464.78699999999998</v>
+      </c>
+      <c r="G50">
+        <v>8779.8220000000001</v>
+      </c>
+      <c r="H50">
+        <v>29668.384999999998</v>
+      </c>
+      <c r="I50">
+        <v>5280.5219999999999</v>
+      </c>
+      <c r="J50">
+        <v>1170.8589999999999</v>
+      </c>
+      <c r="K50">
+        <v>95.997</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-467.33</v>
+      </c>
+      <c r="N50">
+        <v>12465.25</v>
+      </c>
+      <c r="O50">
+        <v>24572.097000000002</v>
+      </c>
+      <c r="P50">
+        <v>1266.856</v>
+      </c>
+      <c r="Q50">
+        <v>-611.27200000000005</v>
+      </c>
+      <c r="R50">
+        <v>41729</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>5096.2879999999996</v>
+      </c>
+      <c r="U50">
+        <v>1105.912</v>
+      </c>
+      <c r="V50">
+        <v>127.178</v>
+      </c>
+      <c r="W50">
+        <v>-18.18</v>
+      </c>
+      <c r="X50">
+        <v>-534.18799999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-205.79400000000001</v>
+      </c>
+      <c r="AA50">
+        <v>137.245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>143.61000000000001</v>
+      </c>
+      <c r="D51">
+        <v>2608.1010000000001</v>
+      </c>
+      <c r="E51">
+        <v>1294.865</v>
+      </c>
+      <c r="F51">
+        <v>447.75900000000001</v>
+      </c>
+      <c r="G51">
+        <v>9250.2489999999998</v>
+      </c>
+      <c r="H51">
+        <v>30617.172999999999</v>
+      </c>
+      <c r="I51">
+        <v>5580.5119999999997</v>
+      </c>
+      <c r="J51">
+        <v>1170.932</v>
+      </c>
+      <c r="K51">
+        <v>95.216999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>12951.325999999999</v>
+      </c>
+      <c r="O51">
+        <v>25267.466</v>
+      </c>
+      <c r="P51">
+        <v>1266.1489999999999</v>
+      </c>
+      <c r="Q51">
+        <v>292.95800000000003</v>
+      </c>
+      <c r="R51">
+        <v>41820</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5349.7070000000003</v>
+      </c>
+      <c r="U51">
+        <v>1398.87</v>
+      </c>
+      <c r="V51">
+        <v>134.59</v>
+      </c>
+      <c r="W51">
+        <v>-20.753</v>
+      </c>
+      <c r="X51">
+        <v>-71.611000000000004</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>289.798</v>
+      </c>
+      <c r="AA51">
+        <v>143.61000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>140.297</v>
+      </c>
+      <c r="D52">
+        <v>2702.4879999999998</v>
+      </c>
+      <c r="E52">
+        <v>1340.2</v>
+      </c>
+      <c r="F52">
+        <v>491.41</v>
+      </c>
+      <c r="G52">
+        <v>9517.5769999999993</v>
+      </c>
+      <c r="H52">
+        <v>30673.129000000001</v>
+      </c>
+      <c r="I52">
+        <v>5560.6869999999999</v>
+      </c>
+      <c r="J52">
+        <v>1171.0050000000001</v>
+      </c>
+      <c r="K52">
+        <v>95.972999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>13062.333000000001</v>
+      </c>
+      <c r="O52">
+        <v>25330.565999999999</v>
+      </c>
+      <c r="P52">
+        <v>1266.9780000000001</v>
+      </c>
+      <c r="Q52">
+        <v>12.396000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41912</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>5342.5630000000001</v>
+      </c>
+      <c r="U52">
+        <v>1411.2660000000001</v>
+      </c>
+      <c r="V52">
+        <v>252.89599999999999</v>
+      </c>
+      <c r="W52">
+        <v>-19.449000000000002</v>
+      </c>
+      <c r="X52">
+        <v>-52.494999999999997</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-113.033</v>
+      </c>
+      <c r="AA52">
+        <v>140.297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>49.755000000000003</v>
+      </c>
+      <c r="D53">
+        <v>2622.692</v>
+      </c>
+      <c r="E53">
+        <v>1243.8720000000001</v>
+      </c>
+      <c r="F53">
+        <v>373.745</v>
+      </c>
+      <c r="G53">
+        <v>10518.117</v>
+      </c>
+      <c r="H53">
+        <v>31562.466</v>
+      </c>
+      <c r="I53">
+        <v>6284.5510000000004</v>
+      </c>
+      <c r="J53">
+        <v>1171.079</v>
+      </c>
+      <c r="K53">
+        <v>95.986000000000004</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>13719.353999999999</v>
+      </c>
+      <c r="O53">
+        <v>26381.159</v>
+      </c>
+      <c r="P53">
+        <v>1267.0650000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-92.61</v>
+      </c>
+      <c r="R53">
+        <v>42004</v>
+      </c>
+      <c r="S53">
+        <v>17600</v>
+      </c>
+      <c r="T53">
+        <v>5181.3069999999998</v>
+      </c>
+      <c r="U53">
+        <v>1318.6559999999999</v>
+      </c>
+      <c r="V53">
+        <v>-120.848</v>
+      </c>
+      <c r="W53">
+        <v>-19.113</v>
+      </c>
+      <c r="X53">
+        <v>-117.905</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>314.09199999999998</v>
+      </c>
+      <c r="AA53">
+        <v>49.755000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>50.043999999999997</v>
+      </c>
+      <c r="D54">
+        <v>2598.61</v>
+      </c>
+      <c r="E54">
+        <v>1573.9839999999999</v>
+      </c>
+      <c r="F54">
+        <v>335.98399999999998</v>
+      </c>
+      <c r="G54">
+        <v>10236.549000000001</v>
+      </c>
+      <c r="H54">
+        <v>30800.356</v>
+      </c>
+      <c r="I54">
+        <v>6217.1490000000003</v>
+      </c>
+      <c r="J54">
+        <v>1171.153</v>
+      </c>
+      <c r="K54">
+        <v>93.241</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>13052.21</v>
+      </c>
+      <c r="O54">
+        <v>25672.144</v>
+      </c>
+      <c r="P54">
+        <v>1264.394</v>
+      </c>
+      <c r="Q54">
+        <v>-253.49100000000001</v>
+      </c>
+      <c r="R54">
+        <v>42094</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>5128.2120000000004</v>
+      </c>
+      <c r="U54">
+        <v>1065.165</v>
+      </c>
+      <c r="V54">
+        <v>-177.666</v>
+      </c>
+      <c r="W54">
+        <v>-18.834</v>
+      </c>
+      <c r="X54">
+        <v>-104.35</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-2.8370000000000002</v>
+      </c>
+      <c r="AA54">
+        <v>50.043999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>32.789000000000001</v>
+      </c>
+      <c r="D55">
+        <v>2644.8939999999998</v>
+      </c>
+      <c r="E55">
+        <v>1426.2840000000001</v>
+      </c>
+      <c r="F55">
+        <v>332.88499999999999</v>
+      </c>
+      <c r="G55">
+        <v>10676.647000000001</v>
+      </c>
+      <c r="H55">
+        <v>30842.081999999999</v>
+      </c>
+      <c r="I55">
+        <v>6406.848</v>
+      </c>
+      <c r="J55">
+        <v>1171.229</v>
+      </c>
+      <c r="K55">
+        <v>95.289000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>13339.091</v>
+      </c>
+      <c r="O55">
+        <v>26014.121999999999</v>
+      </c>
+      <c r="P55">
+        <v>1266.518</v>
+      </c>
+      <c r="Q55">
+        <v>232.27099999999999</v>
+      </c>
+      <c r="R55">
+        <v>42185</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4827.96</v>
+      </c>
+      <c r="U55">
+        <v>1297.4359999999999</v>
+      </c>
+      <c r="V55">
+        <v>346.56200000000001</v>
+      </c>
+      <c r="W55">
+        <v>-21.616</v>
+      </c>
+      <c r="X55">
+        <v>-126.03700000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>60.494999999999997</v>
+      </c>
+      <c r="AA55">
+        <v>32.789000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-7.0220000000000002</v>
+      </c>
+      <c r="D56">
+        <v>2534.1559999999999</v>
+      </c>
+      <c r="E56">
+        <v>1274.3330000000001</v>
+      </c>
+      <c r="F56">
+        <v>234.702</v>
+      </c>
+      <c r="G56">
+        <v>11012.484</v>
+      </c>
+      <c r="H56">
+        <v>30586.091</v>
+      </c>
+      <c r="I56">
+        <v>6459.951</v>
+      </c>
+      <c r="J56">
+        <v>1171.3050000000001</v>
+      </c>
+      <c r="K56">
+        <v>51.033999999999999</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>13420.120999999999</v>
+      </c>
+      <c r="O56">
+        <v>25902.491999999998</v>
+      </c>
+      <c r="P56">
+        <v>1222.3389999999999</v>
+      </c>
+      <c r="Q56">
+        <v>246.5</v>
+      </c>
+      <c r="R56">
+        <v>42277</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4683.5990000000002</v>
+      </c>
+      <c r="U56">
+        <v>1543.9359999999999</v>
+      </c>
+      <c r="V56">
+        <v>360.57799999999997</v>
+      </c>
+      <c r="W56">
+        <v>-20.456</v>
+      </c>
+      <c r="X56">
+        <v>-94.944999999999993</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-24.663</v>
+      </c>
+      <c r="AA56">
+        <v>-7.0220000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>65.744</v>
+      </c>
+      <c r="D57">
+        <v>2547.8339999999998</v>
+      </c>
+      <c r="E57">
+        <v>1064.44</v>
+      </c>
+      <c r="F57">
+        <v>362.65800000000002</v>
+      </c>
+      <c r="G57">
+        <v>10682.294</v>
+      </c>
+      <c r="H57">
+        <v>30036.401999999998</v>
+      </c>
+      <c r="I57">
+        <v>6173.674</v>
+      </c>
+      <c r="J57">
+        <v>1164.6559999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>12990.654</v>
+      </c>
+      <c r="O57">
+        <v>25512.435000000001</v>
+      </c>
+      <c r="P57">
+        <v>1164.6559999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-255.631</v>
+      </c>
+      <c r="R57">
+        <v>42369</v>
+      </c>
+      <c r="S57">
+        <v>16700</v>
+      </c>
+      <c r="T57">
+        <v>4523.9669999999996</v>
+      </c>
+      <c r="U57">
+        <v>1288.3050000000001</v>
+      </c>
+      <c r="V57">
+        <v>-274.90199999999999</v>
+      </c>
+      <c r="W57">
+        <v>-33.262</v>
+      </c>
+      <c r="X57">
+        <v>-161.79499999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>105.262</v>
+      </c>
+      <c r="AA57">
+        <v>65.744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>220.4</v>
+      </c>
+      <c r="D58">
+        <v>2117.9</v>
+      </c>
+      <c r="E58">
+        <v>1331.527</v>
+      </c>
+      <c r="F58">
+        <v>497.2</v>
+      </c>
+      <c r="G58">
+        <v>12646.428</v>
+      </c>
+      <c r="H58">
+        <v>30287.195</v>
+      </c>
+      <c r="I58">
+        <v>5379.0680000000002</v>
+      </c>
+      <c r="J58">
+        <v>1414.704</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>12301.058999999999</v>
+      </c>
+      <c r="O58">
+        <v>25722.55</v>
+      </c>
+      <c r="P58">
+        <v>1414.704</v>
+      </c>
+      <c r="Q58">
+        <v>772.5</v>
+      </c>
+      <c r="R58">
+        <v>42460</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>4564.6450000000004</v>
+      </c>
+      <c r="U58">
+        <v>2060.8150000000001</v>
+      </c>
+      <c r="V58">
+        <v>-346</v>
+      </c>
+      <c r="W58">
+        <v>-32.4</v>
+      </c>
+      <c r="X58">
+        <v>-19.8</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>232.1</v>
+      </c>
+      <c r="AA58">
+        <v>220.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>169.3</v>
+      </c>
+      <c r="D59">
+        <v>1797.8</v>
+      </c>
+      <c r="E59">
+        <v>1218.299</v>
+      </c>
+      <c r="F59">
+        <v>363.2</v>
+      </c>
+      <c r="G59">
+        <v>11788.582</v>
+      </c>
+      <c r="H59">
+        <v>29804.213</v>
+      </c>
+      <c r="I59">
+        <v>5391.09</v>
+      </c>
+      <c r="J59">
+        <v>1165.2550000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>12128.77</v>
+      </c>
+      <c r="O59">
+        <v>25196.142</v>
+      </c>
+      <c r="P59">
+        <v>1165.2550000000001</v>
+      </c>
+      <c r="Q59">
+        <v>-828.1</v>
+      </c>
+      <c r="R59">
+        <v>42551</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4608.0709999999999</v>
+      </c>
+      <c r="U59">
+        <v>1232.674</v>
+      </c>
+      <c r="V59">
+        <v>22.2</v>
+      </c>
+      <c r="W59">
+        <v>-32.6</v>
+      </c>
+      <c r="X59">
+        <v>-461.1</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-558.6</v>
+      </c>
+      <c r="AA59">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>144.4</v>
+      </c>
+      <c r="D60">
+        <v>1834.1</v>
+      </c>
+      <c r="E60">
+        <v>1312.7380000000001</v>
+      </c>
+      <c r="F60">
+        <v>323.60000000000002</v>
+      </c>
+      <c r="G60">
+        <v>12002.728999999999</v>
+      </c>
+      <c r="H60">
+        <v>30283.835999999999</v>
+      </c>
+      <c r="I60">
+        <v>5629.991</v>
+      </c>
+      <c r="J60">
+        <v>1165.557</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>12513.118</v>
+      </c>
+      <c r="O60">
+        <v>25778.921999999999</v>
+      </c>
+      <c r="P60">
+        <v>1165.557</v>
+      </c>
+      <c r="Q60">
+        <v>-116</v>
+      </c>
+      <c r="R60">
+        <v>42643</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4504.9139999999998</v>
+      </c>
+      <c r="U60">
+        <v>1116.623</v>
+      </c>
+      <c r="V60">
+        <v>255.8</v>
+      </c>
+      <c r="W60">
+        <v>-30</v>
+      </c>
+      <c r="X60">
+        <v>-254.4</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-92.2</v>
+      </c>
+      <c r="AA60">
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>31.3</v>
+      </c>
+      <c r="D61">
+        <v>1752.4</v>
+      </c>
+      <c r="E61">
+        <v>1072.4000000000001</v>
+      </c>
+      <c r="F61">
+        <v>187.4</v>
+      </c>
+      <c r="G61">
+        <v>11691.5</v>
+      </c>
+      <c r="H61">
+        <v>29709.1</v>
+      </c>
+      <c r="I61">
+        <v>5459.7</v>
+      </c>
+      <c r="J61">
+        <v>1067</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>12472.4</v>
+      </c>
+      <c r="O61">
+        <v>25611</v>
+      </c>
+      <c r="P61">
+        <v>1067</v>
+      </c>
+      <c r="Q61">
+        <v>-84.7</v>
+      </c>
+      <c r="R61">
+        <v>42735</v>
+      </c>
+      <c r="S61">
+        <v>14700</v>
+      </c>
+      <c r="T61">
+        <v>4098.1000000000004</v>
+      </c>
+      <c r="U61">
+        <v>1032</v>
+      </c>
+      <c r="V61">
+        <v>176.6</v>
+      </c>
+      <c r="W61">
+        <v>-30.3</v>
+      </c>
+      <c r="X61">
+        <v>-345</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="D62">
+        <v>1551.5</v>
+      </c>
+      <c r="E62">
+        <v>1244</v>
+      </c>
+      <c r="F62">
+        <v>268.7</v>
+      </c>
+      <c r="G62">
+        <v>11338.2</v>
+      </c>
+      <c r="H62">
+        <v>29567.7</v>
+      </c>
+      <c r="I62">
+        <v>5240</v>
+      </c>
+      <c r="J62">
+        <v>1067.3</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>12233.3</v>
+      </c>
+      <c r="O62">
+        <v>25408.9</v>
+      </c>
+      <c r="P62">
+        <v>1067.3</v>
+      </c>
+      <c r="Q62">
+        <v>-157.5</v>
+      </c>
+      <c r="R62">
+        <v>42825</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>4158.8</v>
+      </c>
+      <c r="U62">
+        <v>874.5</v>
+      </c>
+      <c r="V62">
+        <v>24.2</v>
+      </c>
+      <c r="W62">
+        <v>-29.7</v>
+      </c>
+      <c r="X62">
+        <v>-127.7</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>89.4</v>
+      </c>
+      <c r="AA62">
+        <v>143.80000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>120.2</v>
+      </c>
+      <c r="D63">
+        <v>1600.5</v>
+      </c>
+      <c r="E63">
+        <v>1336.3</v>
+      </c>
+      <c r="F63">
+        <v>205.1</v>
+      </c>
+      <c r="G63">
+        <v>11479.4</v>
+      </c>
+      <c r="H63">
+        <v>30058.9</v>
+      </c>
+      <c r="I63">
+        <v>5320</v>
+      </c>
+      <c r="J63">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>12412.7</v>
+      </c>
+      <c r="O63">
+        <v>25834.3</v>
+      </c>
+      <c r="P63">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="Q63">
+        <v>-26.3</v>
+      </c>
+      <c r="R63">
+        <v>42916</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4224.6000000000004</v>
+      </c>
+      <c r="U63">
+        <v>848.2</v>
+      </c>
+      <c r="V63">
+        <v>-24.5</v>
+      </c>
+      <c r="W63">
+        <v>-30.3</v>
+      </c>
+      <c r="X63">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AA63">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-57.3</v>
+      </c>
+      <c r="D64">
+        <v>1586.4</v>
+      </c>
+      <c r="E64">
+        <v>1286.4000000000001</v>
+      </c>
+      <c r="F64">
+        <v>-48.5</v>
+      </c>
+      <c r="G64">
+        <v>13359.4</v>
+      </c>
+      <c r="H64">
+        <v>32405.200000000001</v>
+      </c>
+      <c r="I64">
+        <v>7193.6</v>
+      </c>
+      <c r="J64">
+        <v>1067.9000000000001</v>
+      </c>
+      <c r="K64">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>14691.4</v>
+      </c>
+      <c r="O64">
+        <v>28267</v>
+      </c>
+      <c r="P64">
+        <v>1225.5999999999999</v>
+      </c>
+      <c r="Q64">
+        <v>144.6</v>
+      </c>
+      <c r="R64">
+        <v>43008</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4138.2</v>
+      </c>
+      <c r="U64">
+        <v>992.8</v>
+      </c>
+      <c r="V64">
+        <v>366.7</v>
+      </c>
+      <c r="W64">
+        <v>-28.8</v>
+      </c>
+      <c r="X64">
+        <v>22.6</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-214.9</v>
+      </c>
+      <c r="AA64">
+        <v>-57.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>312.89999999999998</v>
+      </c>
+      <c r="D65">
+        <v>1676.6</v>
+      </c>
+      <c r="E65">
+        <v>1115.5</v>
+      </c>
+      <c r="F65">
+        <v>252.3</v>
+      </c>
+      <c r="G65">
+        <v>12631.6</v>
+      </c>
+      <c r="H65">
+        <v>31843</v>
+      </c>
+      <c r="I65">
+        <v>6146.9</v>
+      </c>
+      <c r="J65">
+        <v>1169.0999999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>13900.4</v>
+      </c>
+      <c r="O65">
+        <v>27561.5</v>
+      </c>
+      <c r="P65">
+        <v>1518.9</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>43100</v>
+      </c>
+      <c r="S65">
+        <v>13600</v>
+      </c>
+      <c r="T65">
+        <v>4281.5</v>
+      </c>
+      <c r="U65">
+        <v>1066.5999999999999</v>
+      </c>
+      <c r="V65">
+        <v>164</v>
+      </c>
+      <c r="W65">
+        <v>-30.2</v>
+      </c>
+      <c r="X65">
+        <v>143</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-286.7</v>
+      </c>
+      <c r="AA65">
+        <v>312.89999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>106</v>
+      </c>
+      <c r="D66">
+        <v>1638.6</v>
+      </c>
+      <c r="E66">
+        <v>1248.5</v>
+      </c>
+      <c r="F66">
+        <v>210.7</v>
+      </c>
+      <c r="G66">
+        <v>13240.5</v>
+      </c>
+      <c r="H66">
+        <v>32427.9</v>
+      </c>
+      <c r="I66">
+        <v>5327.4</v>
+      </c>
+      <c r="J66">
+        <v>2004.4</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-350</v>
+      </c>
+      <c r="N66">
+        <v>12757.1</v>
+      </c>
+      <c r="O66">
+        <v>27926.9</v>
+      </c>
+      <c r="P66">
+        <v>2004.4</v>
+      </c>
+      <c r="Q66">
+        <v>1345.2</v>
+      </c>
+      <c r="R66">
+        <v>43190</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>4501</v>
+      </c>
+      <c r="U66">
+        <v>2372.1</v>
+      </c>
+      <c r="V66">
+        <v>-75.7</v>
+      </c>
+      <c r="W66">
+        <v>-29.7</v>
+      </c>
+      <c r="X66">
+        <v>1344</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>113</v>
+      </c>
+      <c r="AA66">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
+      <c r="D67">
+        <v>1831.7</v>
+      </c>
+      <c r="E67">
+        <v>1512.7</v>
+      </c>
+      <c r="F67">
+        <v>215.2</v>
+      </c>
+      <c r="G67">
+        <v>14383.2</v>
+      </c>
+      <c r="H67">
+        <v>42361.3</v>
+      </c>
+      <c r="I67">
+        <v>6752.7</v>
+      </c>
+      <c r="J67">
+        <v>2004.8</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>21565.8</v>
+      </c>
+      <c r="O67">
+        <v>37028.400000000001</v>
+      </c>
+      <c r="P67">
+        <v>2004.8</v>
+      </c>
+      <c r="Q67">
+        <v>-1088.3</v>
+      </c>
+      <c r="R67">
+        <v>43281</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5332.9</v>
+      </c>
+      <c r="U67">
+        <v>1288.7</v>
+      </c>
+      <c r="V67">
+        <v>248</v>
+      </c>
+      <c r="W67">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="X67">
+        <v>300.5</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-321.8</v>
+      </c>
+      <c r="AA67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>53</v>
+      </c>
+      <c r="D68">
+        <v>2270.3000000000002</v>
+      </c>
+      <c r="E68">
+        <v>1601</v>
+      </c>
+      <c r="F68">
+        <v>173</v>
+      </c>
+      <c r="G68">
+        <v>15094.2</v>
+      </c>
+      <c r="H68">
+        <v>43443.1</v>
+      </c>
+      <c r="I68">
+        <v>6467</v>
+      </c>
+      <c r="J68">
+        <v>2005.4</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>22281.1</v>
+      </c>
+      <c r="O68">
+        <v>38203.4</v>
+      </c>
+      <c r="P68">
+        <v>2005.4</v>
+      </c>
+      <c r="Q68">
+        <v>52.9</v>
+      </c>
+      <c r="R68">
+        <v>43373</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5239.7</v>
+      </c>
+      <c r="U68">
+        <v>1431.9</v>
+      </c>
+      <c r="V68">
+        <v>282.3</v>
+      </c>
+      <c r="W68">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="X68">
+        <v>145.9</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-371.7</v>
+      </c>
+      <c r="AA68">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>2317</v>
+      </c>
+      <c r="E69">
+        <v>1562.9</v>
+      </c>
+      <c r="F69">
+        <v>143.9</v>
+      </c>
+      <c r="G69">
+        <v>12671.4</v>
+      </c>
+      <c r="H69">
+        <v>41089.300000000003</v>
+      </c>
+      <c r="I69">
+        <v>5555.4</v>
+      </c>
+      <c r="J69">
+        <v>3322.7</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>21542</v>
+      </c>
+      <c r="O69">
+        <v>35955.4</v>
+      </c>
+      <c r="P69">
+        <v>3322.7</v>
+      </c>
+      <c r="Q69">
+        <v>-52.6</v>
+      </c>
+      <c r="R69">
+        <v>43465</v>
+      </c>
+      <c r="S69">
+        <v>13750</v>
+      </c>
+      <c r="T69">
+        <v>5133.8999999999996</v>
+      </c>
+      <c r="U69">
+        <v>1316.6</v>
+      </c>
+      <c r="V69">
+        <v>202.1</v>
+      </c>
+      <c r="W69">
+        <v>-42.4</v>
+      </c>
+      <c r="X69">
+        <v>47.6</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-396.9</v>
+      </c>
+      <c r="AA69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>165.7</v>
+      </c>
+      <c r="D70">
+        <v>2435.4</v>
+      </c>
+      <c r="E70">
+        <v>1695.5</v>
+      </c>
+      <c r="F70">
+        <v>290</v>
+      </c>
+      <c r="G70">
+        <v>12665.2</v>
+      </c>
+      <c r="H70">
+        <v>42237</v>
+      </c>
+      <c r="I70">
+        <v>5648.4</v>
+      </c>
+      <c r="J70">
+        <v>3610.2</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-317.39999999999998</v>
+      </c>
+      <c r="N70">
+        <v>21623.5</v>
+      </c>
+      <c r="O70">
+        <v>36765.300000000003</v>
+      </c>
+      <c r="P70">
+        <v>3691.5</v>
+      </c>
+      <c r="Q70">
+        <v>20.2</v>
+      </c>
+      <c r="R70">
+        <v>43555</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>5471.7</v>
+      </c>
+      <c r="U70">
+        <v>1384.6</v>
+      </c>
+      <c r="V70">
+        <v>246.7</v>
+      </c>
+      <c r="W70">
+        <v>-42.1</v>
+      </c>
+      <c r="X70">
+        <v>220.9</v>
+      </c>
+      <c r="Y70">
+        <v>81.3</v>
+      </c>
+      <c r="Z70">
+        <v>-418.4</v>
+      </c>
+      <c r="AA70">
+        <v>165.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>144.1</v>
+      </c>
+      <c r="D71">
+        <v>2536.3000000000002</v>
+      </c>
+      <c r="E71">
+        <v>1745.7</v>
+      </c>
+      <c r="F71">
+        <v>275.3</v>
+      </c>
+      <c r="G71">
+        <v>12992.7</v>
+      </c>
+      <c r="H71">
+        <v>43139.5</v>
+      </c>
+      <c r="I71">
+        <v>5772.4</v>
+      </c>
+      <c r="J71">
+        <v>3623.8</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>22154.799999999999</v>
+      </c>
+      <c r="O71">
+        <v>37379.199999999997</v>
+      </c>
+      <c r="P71">
+        <v>3708.5</v>
+      </c>
+      <c r="Q71">
+        <v>216.2</v>
+      </c>
+      <c r="R71">
+        <v>43646</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5760.3</v>
+      </c>
+      <c r="U71">
+        <v>1575.2</v>
+      </c>
+      <c r="V71">
+        <v>479</v>
+      </c>
+      <c r="W71">
+        <v>-42.9</v>
+      </c>
+      <c r="X71">
+        <v>-102.3</v>
+      </c>
+      <c r="Y71">
+        <v>84.7</v>
+      </c>
+      <c r="Z71">
+        <v>-115.8</v>
+      </c>
+      <c r="AA71">
+        <v>144.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-54.8</v>
+      </c>
+      <c r="D72">
+        <v>2378.1999999999998</v>
+      </c>
+      <c r="E72">
+        <v>1767.1</v>
+      </c>
+      <c r="F72">
+        <v>101.1</v>
+      </c>
+      <c r="G72">
+        <v>13501</v>
+      </c>
+      <c r="H72">
+        <v>43751.5</v>
+      </c>
+      <c r="I72">
+        <v>5969.7</v>
+      </c>
+      <c r="J72">
+        <v>3616.5</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>22864.1</v>
+      </c>
+      <c r="O72">
+        <v>38061.1</v>
+      </c>
+      <c r="P72">
+        <v>3699.5</v>
+      </c>
+      <c r="Q72">
+        <v>258.89999999999998</v>
+      </c>
+      <c r="R72">
+        <v>43738</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5690.4</v>
+      </c>
+      <c r="U72">
+        <v>1813.6</v>
+      </c>
+      <c r="V72">
+        <v>442.2</v>
+      </c>
+      <c r="W72">
+        <v>-42</v>
+      </c>
+      <c r="X72">
+        <v>-168.7</v>
+      </c>
+      <c r="Y72">
+        <v>83</v>
+      </c>
+      <c r="Z72">
+        <v>29.7</v>
+      </c>
+      <c r="AA72">
+        <v>-54.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>127.6</v>
+      </c>
+      <c r="D73">
+        <v>2573.9</v>
+      </c>
+      <c r="E73">
+        <v>1617.6</v>
+      </c>
+      <c r="F73">
+        <v>323.2</v>
+      </c>
+      <c r="G73">
+        <v>13749.1</v>
+      </c>
+      <c r="H73">
+        <v>44291.199999999997</v>
+      </c>
+      <c r="I73">
+        <v>5946.1</v>
+      </c>
+      <c r="J73">
+        <v>3610</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>23090.2</v>
+      </c>
+      <c r="O73">
+        <v>38609.1</v>
+      </c>
+      <c r="P73">
+        <v>3686.4</v>
+      </c>
+      <c r="Q73">
+        <v>117.8</v>
+      </c>
+      <c r="R73">
+        <v>43830</v>
+      </c>
+      <c r="S73">
+        <v>13600</v>
+      </c>
+      <c r="T73">
+        <v>5682.1</v>
+      </c>
+      <c r="U73">
+        <v>1900</v>
+      </c>
+      <c r="V73">
+        <v>245.5</v>
+      </c>
+      <c r="W73">
+        <v>-43</v>
+      </c>
+      <c r="X73">
+        <v>-129.1</v>
+      </c>
+      <c r="Y73">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Z73">
+        <v>46.6</v>
+      </c>
+      <c r="AA73">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="D74">
+        <v>2564.1999999999998</v>
+      </c>
+      <c r="E74">
+        <v>1636</v>
+      </c>
+      <c r="F74">
+        <v>184.6</v>
+      </c>
+      <c r="G74">
+        <v>13643.5</v>
+      </c>
+      <c r="H74">
+        <v>43423.3</v>
+      </c>
+      <c r="I74">
+        <v>5709.4</v>
+      </c>
+      <c r="J74">
+        <v>3771.5</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-0.7</v>
+      </c>
+      <c r="N74">
+        <v>22850.400000000001</v>
+      </c>
+      <c r="O74">
+        <v>38037.1</v>
+      </c>
+      <c r="P74">
+        <v>3821.4</v>
+      </c>
+      <c r="Q74">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43921</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>5386.2</v>
+      </c>
+      <c r="U74">
+        <v>2035</v>
+      </c>
+      <c r="V74">
+        <v>-123.7</v>
+      </c>
+      <c r="W74">
+        <v>-42.7</v>
+      </c>
+      <c r="X74">
+        <v>91.4</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>193.1</v>
+      </c>
+      <c r="AA74">
+        <v>154.69999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>178.1</v>
+      </c>
+      <c r="D75">
+        <v>2467.1</v>
+      </c>
+      <c r="E75">
+        <v>1475.4</v>
+      </c>
+      <c r="F75">
+        <v>311.8</v>
+      </c>
+      <c r="G75">
+        <v>13580.9</v>
+      </c>
+      <c r="H75">
+        <v>44233.2</v>
+      </c>
+      <c r="I75">
+        <v>5714.8</v>
+      </c>
+      <c r="J75">
+        <v>3663.1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>22795.599999999999</v>
+      </c>
+      <c r="O75">
+        <v>38248.699999999997</v>
+      </c>
+      <c r="P75">
+        <v>3713</v>
+      </c>
+      <c r="Q75">
+        <v>137.6</v>
+      </c>
+      <c r="R75">
+        <v>44012</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5984.5</v>
+      </c>
+      <c r="U75">
+        <v>2152.4</v>
+      </c>
+      <c r="V75">
+        <v>415.9</v>
+      </c>
+      <c r="W75">
+        <v>-44.2</v>
+      </c>
+      <c r="X75">
+        <v>-79.400000000000006</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-82.8</v>
+      </c>
+      <c r="AA75">
+        <v>178.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-30.2</v>
+      </c>
+      <c r="D76">
+        <v>2502.5</v>
+      </c>
+      <c r="E76">
+        <v>1576.7</v>
+      </c>
+      <c r="F76">
+        <v>194.5</v>
+      </c>
+      <c r="G76">
+        <v>13958.9</v>
+      </c>
+      <c r="H76">
+        <v>43582.6</v>
+      </c>
+      <c r="I76">
+        <v>5971.2</v>
+      </c>
+      <c r="J76">
+        <v>1958.6</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>23684.799999999999</v>
+      </c>
+      <c r="O76">
+        <v>37642.6</v>
+      </c>
+      <c r="P76">
+        <v>2008.6</v>
+      </c>
+      <c r="Q76">
+        <v>65.5</v>
+      </c>
+      <c r="R76">
+        <v>44104</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5940</v>
+      </c>
+      <c r="U76">
+        <v>2203</v>
+      </c>
+      <c r="V76">
+        <v>609.4</v>
+      </c>
+      <c r="W76">
+        <v>-42.2</v>
+      </c>
+      <c r="X76">
+        <v>-308.8</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-196.2</v>
+      </c>
+      <c r="AA76">
+        <v>-30.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
         <v>139.19999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D77">
         <v>2555.1</v>
       </c>
-      <c r="E42">
+      <c r="E77">
         <v>1471.2</v>
       </c>
-      <c r="F42">
+      <c r="F77">
         <v>329.4</v>
       </c>
-      <c r="G42">
+      <c r="G77">
         <v>14087.8</v>
       </c>
-      <c r="H42">
+      <c r="H77">
         <v>44649.9</v>
       </c>
-      <c r="I42">
+      <c r="I77">
         <v>5894.8</v>
       </c>
-      <c r="J42">
+      <c r="J77">
         <v>2202.9</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
         <v>23984.3</v>
       </c>
-      <c r="O42">
+      <c r="O77">
         <v>38695.1</v>
       </c>
-      <c r="P42">
+      <c r="P77">
         <v>2330.6</v>
       </c>
-      <c r="Q42">
+      <c r="Q77">
         <v>25.6</v>
       </c>
-      <c r="R42">
+      <c r="R77">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S77">
         <v>13600</v>
       </c>
-      <c r="T42">
+      <c r="T77">
         <v>5954.8</v>
       </c>
-      <c r="U42">
+      <c r="U77">
         <v>2228.6</v>
       </c>
-      <c r="V42">
+      <c r="V77">
         <v>440.4</v>
       </c>
-      <c r="W42">
+      <c r="W77">
         <v>-44.2</v>
       </c>
-      <c r="X42">
+      <c r="X77">
         <v>32</v>
       </c>
-      <c r="Y42">
+      <c r="Y77">
         <v>54.7</v>
       </c>
-      <c r="Z42">
+      <c r="Z77">
         <v>-150</v>
       </c>
-      <c r="AA42">
+      <c r="AA77">
         <v>139.19999999999999</v>
       </c>
     </row>
